--- a/JPM.xlsx
+++ b/JPM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MFE\2.Econometrics\GroupProject\wqu_econometrics_group_project-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23550" windowHeight="10725"/>
   </bookViews>
   <sheets>
     <sheet name="JPM" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -74,33 +74,37 @@
   <si>
     <t>Graph the stock evolution &amp; trend line</t>
   </si>
+  <si>
+    <t>Daily return mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -108,7 +112,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -116,7 +120,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,35 +128,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -168,14 +172,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,14 +187,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -198,7 +202,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,14 +210,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -244,13 +248,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -633,7 +630,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -645,10 +642,10 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -663,53 +660,55 @@
     <xf numFmtId="10" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="18" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,7 +726,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -790,7 +789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2257,8 +2256,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="459525040"/>
-        <c:axId val="459525432"/>
+        <c:axId val="1493563984"/>
+        <c:axId val="1493566704"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -9525,7 +9524,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="459525040"/>
+        <c:axId val="1493563984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43465"/>
@@ -9581,15 +9580,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459525432"/>
+        <c:crossAx val="1493566704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="459525432"/>
+        <c:axId val="1493566704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9643,10 +9642,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459525040"/>
+        <c:crossAx val="1493563984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9686,7 +9685,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9716,7 +9715,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10289,13 +10288,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10321,7 +10320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10583,35 +10582,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M245"/>
+  <dimension ref="A1:N247"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="C245" sqref="C245"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C244" sqref="C244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="16384" width="9" style="12"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="13.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J2" s="17" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="17"/>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -10634,16 +10633,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>43132</v>
       </c>
@@ -10665,20 +10664,17 @@
       <c r="H4" s="1">
         <v>13800600</v>
       </c>
-      <c r="J4" s="1">
-        <f>G4-$C$240</f>
-        <v>5.1358812445414657</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K47" si="0">J4*J4</f>
-        <v>26.377276158032796</v>
-      </c>
-      <c r="L4" s="14" t="e">
-        <f>LN(G4/#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="14"/>
+      <c r="K4" s="20">
+        <f>J4-$C$242</f>
+        <v>7.484613376489333E-4</v>
+      </c>
+      <c r="L4" s="20">
+        <f>K4*K4</f>
+        <v>5.6019437395523058E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>43133</v>
       </c>
@@ -10700,20 +10696,20 @@
       <c r="H5" s="1">
         <v>16477300</v>
       </c>
-      <c r="J5" s="1">
-        <f>G5-$C$240</f>
-        <v>2.6111992445414671</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8183614946939288</v>
-      </c>
-      <c r="L5" s="14">
-        <f t="shared" ref="L5:L48" si="1">LN(G5/G4)</f>
+      <c r="J5" s="14">
+        <f>LN(G5/G4)</f>
         <v>-2.2410664356207803E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="20">
+        <f t="shared" ref="K5:K68" si="0">J5-$C$242</f>
+        <v>-2.1662203018558871E-2</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" ref="L5:L68" si="1">K5*K5</f>
+        <v>4.6925103961726109E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>43136</v>
       </c>
@@ -10735,20 +10731,20 @@
       <c r="H6" s="1">
         <v>30097600</v>
       </c>
-      <c r="J6" s="1">
-        <f>G6-$C$240</f>
-        <v>-2.7305817554585303</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="J6" s="14">
+        <f>LN(G6/G5)</f>
+        <v>-4.9140161987446099E-2</v>
+      </c>
+      <c r="K6" s="20">
         <f t="shared" si="0"/>
-        <v>7.4560767232429894</v>
-      </c>
-      <c r="L6" s="14">
+        <v>-4.8391700649797163E-2</v>
+      </c>
+      <c r="L6" s="20">
         <f t="shared" si="1"/>
-        <v>-4.9140161987446099E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.3417566917795793E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>43137</v>
       </c>
@@ -10770,20 +10766,20 @@
       <c r="H7" s="1">
         <v>33114800</v>
       </c>
-      <c r="J7" s="1">
-        <f>G7-$C$240</f>
-        <v>0.49593524454147087</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="J7" s="14">
+        <f>LN(G7/G6)</f>
+        <v>2.9969178040441254E-2</v>
+      </c>
+      <c r="K7" s="20">
         <f t="shared" si="0"/>
-        <v>0.24595176677840852</v>
-      </c>
-      <c r="L7" s="14">
+        <v>3.0717639378090186E-2</v>
+      </c>
+      <c r="L7" s="20">
         <f t="shared" si="1"/>
-        <v>2.9969178040441254E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9.4357336896239684E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>43138</v>
       </c>
@@ -10805,20 +10801,20 @@
       <c r="H8" s="1">
         <v>21878300</v>
       </c>
-      <c r="J8" s="1">
-        <f>G8-$C$240</f>
-        <v>1.2367642445414759</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="J8" s="14">
+        <f>LN(G8/G7)</f>
+        <v>6.7561529201330666E-3</v>
+      </c>
+      <c r="K8" s="20">
         <f t="shared" si="0"/>
-        <v>1.5295857965762476</v>
-      </c>
-      <c r="L8" s="14">
+        <v>7.5046142577820003E-3</v>
+      </c>
+      <c r="L8" s="20">
         <f t="shared" si="1"/>
-        <v>6.7561529201330666E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.6319235158104883E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>43139</v>
       </c>
@@ -10840,20 +10836,20 @@
       <c r="H9" s="1">
         <v>27425800</v>
       </c>
-      <c r="J9" s="1">
-        <f>G9-$C$240</f>
-        <v>-3.6273867554585308</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="J9" s="14">
+        <f>LN(G9/G8)</f>
+        <v>-4.5217244476097422E-2</v>
+      </c>
+      <c r="K9" s="20">
         <f t="shared" si="0"/>
-        <v>13.157934673675967</v>
-      </c>
-      <c r="L9" s="14">
+        <v>-4.4468783138448487E-2</v>
+      </c>
+      <c r="L9" s="20">
         <f t="shared" si="1"/>
-        <v>-4.5217244476097422E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.9774726738143603E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>43140</v>
       </c>
@@ -10875,20 +10871,20 @@
       <c r="H10" s="1">
         <v>28188000</v>
       </c>
-      <c r="J10" s="1">
-        <f>G10-$C$240</f>
-        <v>-1.5218647554585232</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="J10" s="14">
+        <f>LN(G10/G9)</f>
+        <v>1.982442930209188E-2</v>
+      </c>
+      <c r="K10" s="20">
         <f t="shared" si="0"/>
-        <v>2.3160723339068308</v>
-      </c>
-      <c r="L10" s="14">
+        <v>2.0572890639740812E-2</v>
+      </c>
+      <c r="L10" s="20">
         <f t="shared" si="1"/>
-        <v>1.982442930209188E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.2324382927473516E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>43143</v>
       </c>
@@ -10910,20 +10906,20 @@
       <c r="H11" s="1">
         <v>18043300</v>
       </c>
-      <c r="J11" s="1">
-        <f>G11-$C$240</f>
-        <v>0.13526324454147698</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="J11" s="14">
+        <f>LN(G11/G10)</f>
+        <v>1.5330840122785835E-2</v>
+      </c>
+      <c r="K11" s="20">
         <f t="shared" si="0"/>
-        <v>1.8296145323887403E-2</v>
-      </c>
-      <c r="L11" s="14">
+        <v>1.6079301460434767E-2</v>
+      </c>
+      <c r="L11" s="20">
         <f t="shared" si="1"/>
-        <v>1.5330840122785835E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.5854393545553966E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>43144</v>
       </c>
@@ -10945,20 +10941,20 @@
       <c r="H12" s="1">
         <v>16358200</v>
       </c>
-      <c r="J12" s="1">
-        <f>G12-$C$240</f>
-        <v>0.80786224454146804</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="J12" s="14">
+        <f>LN(G12/G11)</f>
+        <v>6.1560743943090039E-3</v>
+      </c>
+      <c r="K12" s="20">
         <f t="shared" si="0"/>
-        <v>0.65264140615557875</v>
-      </c>
-      <c r="L12" s="14">
+        <v>6.9045357319579368E-3</v>
+      </c>
+      <c r="L12" s="20">
         <f t="shared" si="1"/>
-        <v>6.1560743943090039E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.7672613673883919E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>43145</v>
       </c>
@@ -10980,20 +10976,20 @@
       <c r="H13" s="1">
         <v>15186900</v>
       </c>
-      <c r="J13" s="1">
-        <f>G13-$C$240</f>
-        <v>3.3422862445414694</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="J13" s="14">
+        <f>LN(G13/G12)</f>
+        <v>2.2862141942099456E-2</v>
+      </c>
+      <c r="K13" s="20">
         <f t="shared" si="0"/>
-        <v>11.170877340451119</v>
-      </c>
-      <c r="L13" s="14">
+        <v>2.3610603279748388E-2</v>
+      </c>
+      <c r="L13" s="20">
         <f t="shared" si="1"/>
-        <v>2.2862141942099456E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.5746058723366531E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>43146</v>
       </c>
@@ -11015,20 +11011,20 @@
       <c r="H14" s="1">
         <v>12130200</v>
       </c>
-      <c r="J14" s="1">
-        <f>G14-$C$240</f>
-        <v>3.8101822445414655</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="J14" s="14">
+        <f>LN(G14/G13)</f>
+        <v>4.1641602493675597E-3</v>
+      </c>
+      <c r="K14" s="20">
         <f t="shared" si="0"/>
-        <v>14.51748873661904</v>
-      </c>
-      <c r="L14" s="14">
+        <v>4.9126215870164934E-3</v>
+      </c>
+      <c r="L14" s="20">
         <f t="shared" si="1"/>
-        <v>4.1641602493675597E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.4133850857220449E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>43147</v>
       </c>
@@ -11050,20 +11046,20 @@
       <c r="H15" s="1">
         <v>13214300</v>
       </c>
-      <c r="J15" s="1">
-        <f>G15-$C$240</f>
-        <v>3.0011152445414666</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="J15" s="14">
+        <f>LN(G15/G14)</f>
+        <v>-7.2114679293501854E-3</v>
+      </c>
+      <c r="K15" s="20">
         <f t="shared" si="0"/>
-        <v>9.0066927110191877</v>
-      </c>
-      <c r="L15" s="14">
+        <v>-6.4630065917012525E-3</v>
+      </c>
+      <c r="L15" s="20">
         <f t="shared" si="1"/>
-        <v>-7.2114679293501854E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.1770454204373841E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>43151</v>
       </c>
@@ -11085,20 +11081,20 @@
       <c r="H16" s="1">
         <v>13461500</v>
       </c>
-      <c r="J16" s="1">
-        <f>G16-$C$240</f>
-        <v>3.0303582445414747</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="J16" s="14">
+        <f>LN(G16/G15)</f>
+        <v>2.6155992626034931E-4</v>
+      </c>
+      <c r="K16" s="20">
         <f t="shared" si="0"/>
-        <v>9.1830710902604888</v>
-      </c>
-      <c r="L16" s="14">
+        <v>1.0100212639092827E-3</v>
+      </c>
+      <c r="L16" s="20">
         <f t="shared" si="1"/>
-        <v>2.6155992626034931E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.0201429535489049E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>43152</v>
       </c>
@@ -11120,20 +11116,20 @@
       <c r="H17" s="1">
         <v>14212500</v>
       </c>
-      <c r="J17" s="1">
-        <f>G17-$C$240</f>
-        <v>3.4982542445414708</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="J17" s="14">
+        <f>LN(G17/G16)</f>
+        <v>4.1757525021171426E-3</v>
+      </c>
+      <c r="K17" s="20">
         <f t="shared" si="0"/>
-        <v>12.237782759452417</v>
-      </c>
-      <c r="L17" s="14">
+        <v>4.9242138397660763E-3</v>
+      </c>
+      <c r="L17" s="20">
         <f t="shared" si="1"/>
-        <v>4.1757525021171426E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.4247881939743766E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>43153</v>
       </c>
@@ -11155,20 +11151,20 @@
       <c r="H18" s="1">
         <v>17070400</v>
       </c>
-      <c r="J18" s="1">
-        <f>G18-$C$240</f>
-        <v>3.2935502445414642</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="J18" s="14">
+        <f>LN(G18/G17)</f>
+        <v>-1.8247420762142947E-3</v>
+      </c>
+      <c r="K18" s="20">
         <f t="shared" si="0"/>
-        <v>10.847473213319139</v>
-      </c>
-      <c r="L18" s="14">
+        <v>-1.0762807385653614E-3</v>
+      </c>
+      <c r="L18" s="20">
         <f t="shared" si="1"/>
-        <v>-1.8247420762142947E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.1583802282067998E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>43154</v>
       </c>
@@ -11190,20 +11186,20 @@
       <c r="H19" s="1">
         <v>12162500</v>
       </c>
-      <c r="J19" s="1">
-        <f>G19-$C$240</f>
-        <v>5.5647822445414761</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="J19" s="14">
+        <f>LN(G19/G18)</f>
+        <v>2.00617730055964E-2</v>
+      </c>
+      <c r="K19" s="20">
         <f t="shared" si="0"/>
-        <v>30.966801429164068</v>
-      </c>
-      <c r="L19" s="14">
+        <v>2.0810234343245332E-2</v>
+      </c>
+      <c r="L19" s="20">
         <f t="shared" si="1"/>
-        <v>2.00617730055964E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.3306585342078749E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>43157</v>
       </c>
@@ -11225,20 +11221,20 @@
       <c r="H20" s="1">
         <v>16511200</v>
       </c>
-      <c r="J20" s="1">
-        <f>G20-$C$240</f>
-        <v>6.987962244541464</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="J20" s="14">
+        <f>LN(G20/G19)</f>
+        <v>1.2368867469404259E-2</v>
+      </c>
+      <c r="K20" s="20">
         <f t="shared" si="0"/>
-        <v>48.831616331136978</v>
-      </c>
-      <c r="L20" s="14">
+        <v>1.3117328807053193E-2</v>
+      </c>
+      <c r="L20" s="20">
         <f t="shared" si="1"/>
-        <v>1.2368867469404259E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.7206431503234752E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>43158</v>
       </c>
@@ -11260,20 +11256,20 @@
       <c r="H21" s="1">
         <v>17563300</v>
       </c>
-      <c r="J21" s="1">
-        <f>G21-$C$240</f>
-        <v>5.6135192445414646</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="J21" s="14">
+        <f>LN(G21/G20)</f>
+        <v>-1.1942754259261192E-2</v>
+      </c>
+      <c r="K21" s="20">
         <f t="shared" si="0"/>
-        <v>31.511598308837375</v>
-      </c>
-      <c r="L21" s="14">
+        <v>-1.1194292921612259E-2</v>
+      </c>
+      <c r="L21" s="20">
         <f t="shared" si="1"/>
-        <v>-1.1942754259261192E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.2531219401485831E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>43159</v>
       </c>
@@ -11295,20 +11291,20 @@
       <c r="H22" s="1">
         <v>17735600</v>
       </c>
-      <c r="J22" s="1">
-        <f>G22-$C$240</f>
-        <v>3.8004312445414712</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="J22" s="14">
+        <f>LN(G22/G21)</f>
+        <v>-1.597559347419289E-2</v>
+      </c>
+      <c r="K22" s="20">
         <f t="shared" si="0"/>
-        <v>14.443277644487036</v>
-      </c>
-      <c r="L22" s="14">
+        <v>-1.5227132136543956E-2</v>
+      </c>
+      <c r="L22" s="20">
         <f t="shared" si="1"/>
-        <v>-1.597559347419289E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.318655531037697E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>43160</v>
       </c>
@@ -11330,20 +11326,20 @@
       <c r="H23" s="1">
         <v>18690000</v>
       </c>
-      <c r="J23" s="1">
-        <f>G23-$C$240</f>
-        <v>1.7826402445414686</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="J23" s="14">
+        <f>LN(G23/G22)</f>
+        <v>-1.8084607041025297E-2</v>
+      </c>
+      <c r="K23" s="20">
         <f t="shared" si="0"/>
-        <v>3.177806241458867</v>
-      </c>
-      <c r="L23" s="14">
+        <v>-1.7336145703376365E-2</v>
+      </c>
+      <c r="L23" s="20">
         <f t="shared" si="1"/>
-        <v>-1.8084607041025297E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.005419478486948E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>43161</v>
       </c>
@@ -11365,20 +11361,20 @@
       <c r="H24" s="1">
         <v>18353700</v>
       </c>
-      <c r="J24" s="1">
-        <f>G24-$C$240</f>
-        <v>1.6754162445414664</v>
-      </c>
-      <c r="K24" s="1">
+      <c r="J24" s="14">
+        <f>LN(G24/G23)</f>
+        <v>-9.7021615974408762E-4</v>
+      </c>
+      <c r="K24" s="20">
         <f t="shared" si="0"/>
-        <v>2.8070195924734307</v>
-      </c>
-      <c r="L24" s="14">
+        <v>-2.2175482209515433E-4</v>
+      </c>
+      <c r="L24" s="20">
         <f t="shared" si="1"/>
-        <v>-9.7021615974408762E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.9175201122453545E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>43164</v>
       </c>
@@ -11400,20 +11396,20 @@
       <c r="H25" s="1">
         <v>13933000</v>
       </c>
-      <c r="J25" s="1">
-        <f>G25-$C$240</f>
-        <v>3.371530244541475</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="J25" s="14">
+        <f>LN(G25/G24)</f>
+        <v>1.5238040892672647E-2</v>
+      </c>
+      <c r="K25" s="20">
         <f t="shared" si="0"/>
-        <v>11.367216189857897</v>
-      </c>
-      <c r="L25" s="14">
+        <v>1.5986502230321581E-2</v>
+      </c>
+      <c r="L25" s="20">
         <f t="shared" si="1"/>
-        <v>1.5238040892672647E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.5556825356007687E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>43165</v>
       </c>
@@ -11435,20 +11431,20 @@
       <c r="H26" s="1">
         <v>10674400</v>
       </c>
-      <c r="J26" s="1">
-        <f>G26-$C$240</f>
-        <v>3.4690032445414687</v>
-      </c>
-      <c r="K26" s="1">
+      <c r="J26" s="14">
+        <f>LN(G26/G25)</f>
+        <v>8.6869052479884856E-4</v>
+      </c>
+      <c r="K26" s="20">
         <f t="shared" si="0"/>
-        <v>12.033983510639237</v>
-      </c>
-      <c r="L26" s="14">
+        <v>1.6171518624477819E-3</v>
+      </c>
+      <c r="L26" s="20">
         <f t="shared" si="1"/>
-        <v>8.6869052479884856E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.6151801462183297E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>43166</v>
       </c>
@@ -11470,20 +11466,20 @@
       <c r="H27" s="1">
         <v>13006500</v>
       </c>
-      <c r="J27" s="1">
-        <f>G27-$C$240</f>
-        <v>3.0498592445414658</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="J27" s="14">
+        <f>LN(G27/G26)</f>
+        <v>-3.7408254305556672E-3</v>
+      </c>
+      <c r="K27" s="20">
         <f t="shared" si="0"/>
-        <v>9.3016414115150408</v>
-      </c>
-      <c r="L27" s="14">
+        <v>-2.9923640929067339E-3</v>
+      </c>
+      <c r="L27" s="20">
         <f t="shared" si="1"/>
-        <v>-3.7408254305556672E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>8.9542428645175399E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>43167</v>
       </c>
@@ -11505,20 +11501,20 @@
       <c r="H28" s="1">
         <v>11173700</v>
       </c>
-      <c r="J28" s="1">
-        <f>G28-$C$240</f>
-        <v>3.0596022445414661</v>
-      </c>
-      <c r="K28" s="1">
+      <c r="J28" s="14">
+        <f>LN(G28/G27)</f>
+        <v>8.711451781114999E-5</v>
+      </c>
+      <c r="K28" s="20">
         <f t="shared" si="0"/>
-        <v>9.3611658948031771</v>
-      </c>
-      <c r="L28" s="14">
+        <v>8.3557585546008327E-4</v>
+      </c>
+      <c r="L28" s="20">
         <f t="shared" si="1"/>
-        <v>8.711451781114999E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6.9818701022785E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>43168</v>
       </c>
@@ -11540,20 +11536,20 @@
       <c r="H29" s="1">
         <v>15366600</v>
       </c>
-      <c r="J29" s="1">
-        <f>G29-$C$240</f>
-        <v>6.276368244541473</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="J29" s="14">
+        <f>LN(G29/G28)</f>
+        <v>2.8354805419615277E-2</v>
+      </c>
+      <c r="K29" s="20">
         <f t="shared" si="0"/>
-        <v>39.392798341088614</v>
-      </c>
-      <c r="L29" s="14">
+        <v>2.9103266757264209E-2</v>
+      </c>
+      <c r="L29" s="20">
         <f t="shared" si="1"/>
-        <v>2.8354805419615277E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>8.4700013594447995E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>43171</v>
       </c>
@@ -11575,20 +11571,20 @@
       <c r="H30" s="1">
         <v>12339300</v>
       </c>
-      <c r="J30" s="1">
-        <f>G30-$C$240</f>
-        <v>5.9059612445414729</v>
-      </c>
-      <c r="K30" s="1">
+      <c r="J30" s="14">
+        <f>LN(G30/G29)</f>
+        <v>-3.2243616048984796E-3</v>
+      </c>
+      <c r="K30" s="20">
         <f t="shared" si="0"/>
-        <v>34.880378222025861</v>
-      </c>
-      <c r="L30" s="14">
+        <v>-2.4759002672495463E-3</v>
+      </c>
+      <c r="L30" s="20">
         <f t="shared" si="1"/>
-        <v>-3.2243616048984796E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6.1300821333663751E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>43172</v>
       </c>
@@ -11610,20 +11606,20 @@
       <c r="H31" s="1">
         <v>13312300</v>
       </c>
-      <c r="J31" s="1">
-        <f>G31-$C$240</f>
-        <v>4.5315102445414652</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="J31" s="14">
+        <f>LN(G31/G30)</f>
+        <v>-1.2056173831027304E-2</v>
+      </c>
+      <c r="K31" s="20">
         <f t="shared" si="0"/>
-        <v>20.534585096384252</v>
-      </c>
-      <c r="L31" s="14">
+        <v>-1.130771249337837E-2</v>
+      </c>
+      <c r="L31" s="20">
         <f t="shared" si="1"/>
-        <v>-1.2056173831027304E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.2786436183290529E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>43173</v>
       </c>
@@ -11645,20 +11641,20 @@
       <c r="H32" s="1">
         <v>12905100</v>
       </c>
-      <c r="J32" s="1">
-        <f>G32-$C$240</f>
-        <v>3.2642992445414762</v>
-      </c>
-      <c r="K32" s="1">
+      <c r="J32" s="14">
+        <f>LN(G32/G31)</f>
+        <v>-1.1245777063631765E-2</v>
+      </c>
+      <c r="K32" s="20">
         <f t="shared" si="0"/>
-        <v>10.655649557914053</v>
-      </c>
-      <c r="L32" s="14">
+        <v>-1.0497315725982831E-2</v>
+      </c>
+      <c r="L32" s="20">
         <f t="shared" si="1"/>
-        <v>-1.1245777063631765E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.1019363745096645E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>43174</v>
       </c>
@@ -11680,20 +11676,20 @@
       <c r="H33" s="1">
         <v>8748000</v>
       </c>
-      <c r="J33" s="1">
-        <f>G33-$C$240</f>
-        <v>3.546990244541476</v>
-      </c>
-      <c r="K33" s="1">
+      <c r="J33" s="14">
+        <f>LN(G33/G32)</f>
+        <v>2.519704050245538E-3</v>
+      </c>
+      <c r="K33" s="20">
         <f t="shared" si="0"/>
-        <v>12.581139794872399</v>
-      </c>
-      <c r="L33" s="14">
+        <v>3.2681653878944713E-3</v>
+      </c>
+      <c r="L33" s="20">
         <f t="shared" si="1"/>
-        <v>2.519704050245538E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.068090500263142E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>43175</v>
       </c>
@@ -11715,20 +11711,20 @@
       <c r="H34" s="1">
         <v>19888900</v>
       </c>
-      <c r="J34" s="1">
-        <f>G34-$C$240</f>
-        <v>3.7419522445414657</v>
-      </c>
-      <c r="K34" s="1">
+      <c r="J34" s="14">
+        <f>LN(G34/G33)</f>
+        <v>1.7340590836318367E-3</v>
+      </c>
+      <c r="K34" s="20">
         <f t="shared" si="0"/>
-        <v>14.002206600428913</v>
-      </c>
-      <c r="L34" s="14">
+        <v>2.48252042128077E-3</v>
+      </c>
+      <c r="L34" s="20">
         <f t="shared" si="1"/>
-        <v>1.7340590836318367E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6.162907642076052E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>43178</v>
       </c>
@@ -11750,20 +11746,20 @@
       <c r="H35" s="1">
         <v>13214900</v>
       </c>
-      <c r="J35" s="1">
-        <f>G35-$C$240</f>
-        <v>2.8548902445414654</v>
-      </c>
-      <c r="K35" s="1">
+      <c r="J35" s="14">
+        <f>LN(G35/G34)</f>
+        <v>-7.9142328445366075E-3</v>
+      </c>
+      <c r="K35" s="20">
         <f t="shared" si="0"/>
-        <v>8.150398308378028</v>
-      </c>
-      <c r="L35" s="14">
+        <v>-7.1657715068876738E-3</v>
+      </c>
+      <c r="L35" s="20">
         <f t="shared" si="1"/>
-        <v>-7.9142328445366075E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.1348281288923242E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7">
         <v>43179</v>
       </c>
@@ -11785,20 +11781,20 @@
       <c r="H36" s="1">
         <v>9921200</v>
       </c>
-      <c r="J36" s="1">
-        <f>G36-$C$240</f>
-        <v>2.9621212445414642</v>
-      </c>
-      <c r="K36" s="1">
+      <c r="J36" s="14">
+        <f>LN(G36/G35)</f>
+        <v>9.6003354056799261E-4</v>
+      </c>
+      <c r="K36" s="20">
         <f t="shared" si="0"/>
-        <v>8.7741622673638719</v>
-      </c>
-      <c r="L36" s="14">
+        <v>1.7084948782169259E-3</v>
+      </c>
+      <c r="L36" s="20">
         <f t="shared" si="1"/>
-        <v>9.6003354056799261E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.9189547488934687E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7">
         <v>43180</v>
       </c>
@@ -11820,20 +11816,20 @@
       <c r="H37" s="1">
         <v>13633000</v>
       </c>
-      <c r="J37" s="1">
-        <f>G37-$C$240</f>
-        <v>3.0596022445414661</v>
-      </c>
-      <c r="K37" s="1">
+      <c r="J37" s="14">
+        <f>LN(G37/G36)</f>
+        <v>8.7194325003325075E-4</v>
+      </c>
+      <c r="K37" s="20">
         <f t="shared" si="0"/>
-        <v>9.3611658948031771</v>
-      </c>
-      <c r="L37" s="14">
+        <v>1.6204045876821839E-3</v>
+      </c>
+      <c r="L37" s="20">
         <f t="shared" si="1"/>
-        <v>8.7194325003325075E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.6257110277814684E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7">
         <v>43181</v>
       </c>
@@ -11855,20 +11851,20 @@
       <c r="H38" s="1">
         <v>22550400</v>
       </c>
-      <c r="J38" s="1">
-        <f>G38-$C$240</f>
-        <v>-1.6095947554585308</v>
-      </c>
-      <c r="K38" s="1">
+      <c r="J38" s="14">
+        <f>LN(G38/G37)</f>
+        <v>-4.2643027108158538E-2</v>
+      </c>
+      <c r="K38" s="20">
         <f t="shared" si="0"/>
-        <v>2.5907952767996076</v>
-      </c>
-      <c r="L38" s="14">
+        <v>-4.1894565770509602E-2</v>
+      </c>
+      <c r="L38" s="20">
         <f t="shared" si="1"/>
-        <v>-4.2643027108158538E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.7551546410995548E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7">
         <v>43182</v>
       </c>
@@ -11890,20 +11886,20 @@
       <c r="H39" s="1">
         <v>23081500</v>
       </c>
-      <c r="J39" s="1">
-        <f>G39-$C$240</f>
-        <v>-4.4754397554585239</v>
-      </c>
-      <c r="K39" s="1">
+      <c r="J39" s="14">
+        <f>LN(G39/G38)</f>
+        <v>-2.7103375216144723E-2</v>
+      </c>
+      <c r="K39" s="20">
         <f t="shared" si="0"/>
-        <v>20.029561004738653</v>
-      </c>
-      <c r="L39" s="14">
+        <v>-2.6354913878495791E-2</v>
+      </c>
+      <c r="L39" s="20">
         <f t="shared" si="1"/>
-        <v>-2.7103375216144723E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6.9458148554293008E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>43185</v>
       </c>
@@ -11925,20 +11921,20 @@
       <c r="H40" s="1">
         <v>20217500</v>
       </c>
-      <c r="J40" s="1">
-        <f>G40-$C$240</f>
-        <v>-1.258665755458523</v>
-      </c>
-      <c r="K40" s="1">
+      <c r="J40" s="14">
+        <f>LN(G40/G39)</f>
+        <v>3.0372321409592919E-2</v>
+      </c>
+      <c r="K40" s="20">
         <f t="shared" si="0"/>
-        <v>1.5842394839639744</v>
-      </c>
-      <c r="L40" s="14">
+        <v>3.1120782747241851E-2</v>
+      </c>
+      <c r="L40" s="20">
         <f t="shared" si="1"/>
-        <v>3.0372321409592919E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9.685031188010261E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7">
         <v>43186</v>
       </c>
@@ -11960,20 +11956,20 @@
       <c r="H41" s="1">
         <v>18039900</v>
       </c>
-      <c r="J41" s="1">
-        <f>G41-$C$240</f>
-        <v>-3.3447027554585276</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="J41" s="14">
+        <f>LN(G41/G40)</f>
+        <v>-1.9590610651503797E-2</v>
+      </c>
+      <c r="K41" s="20">
         <f t="shared" si="0"/>
-        <v>11.187036522371868</v>
-      </c>
-      <c r="L41" s="14">
+        <v>-1.8842149313854865E-2</v>
+      </c>
+      <c r="L41" s="20">
         <f t="shared" si="1"/>
-        <v>-1.9590610651503797E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.5502659076560135E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7">
         <v>43187</v>
       </c>
@@ -11995,20 +11991,20 @@
       <c r="H42" s="1">
         <v>19189300</v>
       </c>
-      <c r="J42" s="1">
-        <f>G42-$C$240</f>
-        <v>-3.5104127554585318</v>
-      </c>
-      <c r="K42" s="1">
+      <c r="J42" s="14">
+        <f>LN(G42/G41)</f>
+        <v>-1.5728132631051786E-3</v>
+      </c>
+      <c r="K42" s="20">
         <f t="shared" si="0"/>
-        <v>12.322997713685963</v>
-      </c>
-      <c r="L42" s="14">
+        <v>-8.2435192545624535E-4</v>
+      </c>
+      <c r="L42" s="20">
         <f t="shared" si="1"/>
-        <v>-1.5728132631051786E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6.7955609700341906E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
         <v>43188</v>
       </c>
@@ -12030,20 +12026,20 @@
       <c r="H43" s="1">
         <v>13274600</v>
       </c>
-      <c r="J43" s="1">
-        <f>G43-$C$240</f>
-        <v>-1.5900937554585255</v>
-      </c>
-      <c r="K43" s="1">
+      <c r="J43" s="14">
+        <f>LN(G43/G42)</f>
+        <v>1.8076412582629015E-2</v>
+      </c>
+      <c r="K43" s="20">
         <f t="shared" si="0"/>
-        <v>2.5283981511481972</v>
-      </c>
-      <c r="L43" s="14">
+        <v>1.8824873920277947E-2</v>
+      </c>
+      <c r="L43" s="20">
         <f t="shared" si="1"/>
-        <v>1.8076412582629015E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.5437587811436077E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>43192</v>
       </c>
@@ -12065,20 +12061,20 @@
       <c r="H44" s="1">
         <v>18822500</v>
       </c>
-      <c r="J44" s="1">
-        <f>G44-$C$240</f>
-        <v>-3.6566227554585282</v>
-      </c>
-      <c r="K44" s="1">
+      <c r="J44" s="14">
+        <f>LN(G44/G43)</f>
+        <v>-1.9466201529261044E-2</v>
+      </c>
+      <c r="K44" s="20">
         <f t="shared" si="0"/>
-        <v>13.37088997573712</v>
-      </c>
-      <c r="L44" s="14">
+        <v>-1.8717740191612112E-2</v>
+      </c>
+      <c r="L44" s="20">
         <f t="shared" si="1"/>
-        <v>-1.9466201529261044E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.5035379788069139E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>43193</v>
       </c>
@@ -12100,20 +12096,20 @@
       <c r="H45" s="1">
         <v>14050700</v>
       </c>
-      <c r="J45" s="1">
-        <f>G45-$C$240</f>
-        <v>-2.213957755458523</v>
-      </c>
-      <c r="K45" s="1">
+      <c r="J45" s="14">
+        <f>LN(G45/G44)</f>
+        <v>1.3629381610955787E-2</v>
+      </c>
+      <c r="K45" s="20">
         <f t="shared" si="0"/>
-        <v>4.9016089429549412</v>
-      </c>
-      <c r="L45" s="14">
+        <v>1.4377842948604721E-2</v>
+      </c>
+      <c r="L45" s="20">
         <f t="shared" si="1"/>
-        <v>1.3629381610955787E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.0672236785474249E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>43194</v>
       </c>
@@ -12135,20 +12131,20 @@
       <c r="H46" s="1">
         <v>15302600</v>
       </c>
-      <c r="J46" s="1">
-        <f>G46-$C$240</f>
-        <v>-0.59582375545852528</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="J46" s="14">
+        <f>LN(G46/G45)</f>
+        <v>1.5069281851834929E-2</v>
+      </c>
+      <c r="K46" s="20">
         <f t="shared" si="0"/>
-        <v>0.35500594756870052</v>
-      </c>
-      <c r="L46" s="14">
+        <v>1.5817743189483861E-2</v>
+      </c>
+      <c r="L46" s="20">
         <f t="shared" si="1"/>
-        <v>1.5069281851834929E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.5020099960846307E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7">
         <v>43195</v>
       </c>
@@ -12170,20 +12166,20 @@
       <c r="H47" s="1">
         <v>16627000</v>
       </c>
-      <c r="J47" s="1">
-        <f>G47-$C$240</f>
-        <v>0.82476124454147737</v>
-      </c>
-      <c r="K47" s="1">
+      <c r="J47" s="14">
+        <f>LN(G47/G46)</f>
+        <v>1.304491957170298E-2</v>
+      </c>
+      <c r="K47" s="20">
         <f t="shared" si="0"/>
-        <v>0.68023111049760665</v>
-      </c>
-      <c r="L47" s="14">
+        <v>1.3793380909351914E-2</v>
+      </c>
+      <c r="L47" s="20">
         <f t="shared" si="1"/>
-        <v>1.304491957170298E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.9025735691047385E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7">
         <v>43196</v>
       </c>
@@ -12205,20 +12201,20 @@
       <c r="H48" s="1">
         <v>18906000</v>
       </c>
-      <c r="J48" s="1">
-        <f t="shared" ref="J48:J111" si="2">G48-$C$240</f>
-        <v>-1.9086597554585296</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" ref="K48:K111" si="3">J48*J48</f>
-        <v>3.6429820621070141</v>
-      </c>
-      <c r="L48" s="14">
+      <c r="J48" s="14">
+        <f>LN(G48/G47)</f>
+        <v>-2.5253601816710672E-2</v>
+      </c>
+      <c r="K48" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.450514047906174E-2</v>
+      </c>
+      <c r="L48" s="20">
         <f t="shared" si="1"/>
-        <v>-2.5253601816710672E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6.005019098985502E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7">
         <v>43199</v>
       </c>
@@ -12240,20 +12236,20 @@
       <c r="H49" s="1">
         <v>15974300</v>
       </c>
-      <c r="J49" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.62521975545853081</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="3"/>
-        <v>0.39089974261562505</v>
-      </c>
-      <c r="L49" s="14">
-        <f t="shared" ref="L49:L112" si="4">LN(G49/G48)</f>
+      <c r="J49" s="14">
+        <f>LN(G49/G48)</f>
         <v>1.193693999047404E-2</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="20">
+        <f t="shared" si="0"/>
+        <v>1.2685401328122974E-2</v>
+      </c>
+      <c r="L49" s="20">
+        <f t="shared" si="1"/>
+        <v>1.6091940685554411E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7">
         <v>43200</v>
       </c>
@@ -12275,20 +12271,20 @@
       <c r="H50" s="1">
         <v>13951400</v>
       </c>
-      <c r="J50" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4420022445414702</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0793704732626379</v>
-      </c>
-      <c r="L50" s="14">
-        <f t="shared" si="4"/>
+      <c r="J50" s="14">
+        <f>LN(G50/G49)</f>
         <v>1.8932045341933615E-2</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="20">
+        <f t="shared" si="0"/>
+        <v>1.9680506679582547E-2</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" si="1"/>
+        <v>3.8732234316509324E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7">
         <v>43201</v>
       </c>
@@ -12310,20 +12306,20 @@
       <c r="H51" s="1">
         <v>14503300</v>
       </c>
-      <c r="J51" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.40967475545852494</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="3"/>
-        <v>0.16783340526000221</v>
-      </c>
-      <c r="L51" s="14">
-        <f t="shared" si="4"/>
+      <c r="J51" s="14">
+        <f>LN(G51/G50)</f>
         <v>-1.6941218335001174E-2</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.6192756997352242E-2</v>
+      </c>
+      <c r="L51" s="20">
+        <f t="shared" si="1"/>
+        <v>2.6220537917529999E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <v>43202</v>
       </c>
@@ -12345,20 +12341,20 @@
       <c r="H52" s="1">
         <v>16435500</v>
       </c>
-      <c r="J52" s="1">
-        <f t="shared" si="2"/>
-        <v>2.2845552445414654</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="3"/>
-        <v>5.2191926653619145</v>
-      </c>
-      <c r="L52" s="14">
-        <f t="shared" si="4"/>
+      <c r="J52" s="14">
+        <f>LN(G52/G51)</f>
         <v>2.455584380707497E-2</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="20">
+        <f t="shared" si="0"/>
+        <v>2.5304305144723902E-2</v>
+      </c>
+      <c r="L52" s="20">
+        <f t="shared" si="1"/>
+        <v>6.403078588573005E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <v>43203</v>
       </c>
@@ -12380,20 +12376,20 @@
       <c r="H53" s="1">
         <v>39152800</v>
       </c>
-      <c r="J53" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.72318175545852625</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="3"/>
-        <v>0.52299185142807569</v>
-      </c>
-      <c r="L53" s="14">
-        <f t="shared" si="4"/>
+      <c r="J53" s="14">
+        <f>LN(G53/G52)</f>
         <v>-2.7452783755347144E-2</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.6704322417698212E-2</v>
+      </c>
+      <c r="L53" s="20">
+        <f t="shared" si="1"/>
+        <v>7.1312083578837929E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <v>43206</v>
       </c>
@@ -12415,20 +12411,20 @@
       <c r="H54" s="1">
         <v>16580500</v>
       </c>
-      <c r="J54" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.81136175545853462</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="3"/>
-        <v>0.65830789822075497</v>
-      </c>
-      <c r="L54" s="14">
-        <f t="shared" si="4"/>
+      <c r="J54" s="14">
+        <f>LN(G54/G53)</f>
         <v>-8.1633574286564103E-4</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K54" s="20">
+        <f t="shared" si="0"/>
+        <v>-6.787440521670773E-5</v>
+      </c>
+      <c r="L54" s="20">
+        <f t="shared" si="1"/>
+        <v>4.606934883521842E-9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <v>43207</v>
       </c>
@@ -12450,20 +12446,20 @@
       <c r="H55" s="1">
         <v>15501400</v>
       </c>
-      <c r="J55" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.81136175545853462</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="3"/>
-        <v>0.65830789822075497</v>
-      </c>
-      <c r="L55" s="14">
-        <f t="shared" si="4"/>
+      <c r="J55" s="14">
+        <f>LN(G55/G54)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="20">
+        <f t="shared" si="0"/>
+        <v>7.484613376489333E-4</v>
+      </c>
+      <c r="L55" s="20">
+        <f t="shared" si="1"/>
+        <v>5.6019437395523058E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <v>43208</v>
       </c>
@@ -12485,20 +12481,20 @@
       <c r="H56" s="1">
         <v>16081400</v>
       </c>
-      <c r="J56" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.6833257554585259</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="3"/>
-        <v>2.8335855989900169</v>
-      </c>
-      <c r="L56" s="14">
-        <f t="shared" si="4"/>
+      <c r="J56" s="14">
+        <f>LN(G56/G55)</f>
         <v>-8.108379602055741E-3</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K56" s="20">
+        <f t="shared" si="0"/>
+        <v>-7.3599182644068072E-3</v>
+      </c>
+      <c r="L56" s="20">
+        <f t="shared" si="1"/>
+        <v>5.4168396858748907E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <v>43209</v>
       </c>
@@ -12520,20 +12516,20 @@
       <c r="H57" s="1">
         <v>17911000</v>
       </c>
-      <c r="J57" s="1">
-        <f t="shared" si="2"/>
-        <v>0.66801624454147657</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="3"/>
-        <v>0.44624570297129784</v>
-      </c>
-      <c r="L57" s="14">
-        <f t="shared" si="4"/>
+      <c r="J57" s="14">
+        <f>LN(G57/G56)</f>
         <v>2.1716459264458459E-2</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="20">
+        <f t="shared" si="0"/>
+        <v>2.2464920602107391E-2</v>
+      </c>
+      <c r="L57" s="20">
+        <f t="shared" si="1"/>
+        <v>5.0467265765898907E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <v>43210</v>
       </c>
@@ -12555,20 +12551,20 @@
       <c r="H58" s="1">
         <v>15584400</v>
       </c>
-      <c r="J58" s="1">
-        <f t="shared" si="2"/>
-        <v>0.42308224454147592</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="3"/>
-        <v>0.17899858564625323</v>
-      </c>
-      <c r="L58" s="14">
-        <f t="shared" si="4"/>
+      <c r="J58" s="14">
+        <f>LN(G58/G57)</f>
         <v>-2.2402760444379375E-3</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K58" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.4918147067890042E-3</v>
+      </c>
+      <c r="L58" s="20">
+        <f t="shared" si="1"/>
+        <v>2.2255111193919627E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <v>43213</v>
       </c>
@@ -12590,20 +12586,20 @@
       <c r="H59" s="1">
         <v>11285800</v>
       </c>
-      <c r="J59" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.10595575545852398</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="3"/>
-        <v>1.1226622114786535E-2</v>
-      </c>
-      <c r="L59" s="14">
-        <f t="shared" si="4"/>
+      <c r="J59" s="14">
+        <f>LN(G59/G58)</f>
         <v>-4.8560140177520668E-3</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="20">
+        <f t="shared" si="0"/>
+        <v>-4.107552680103134E-3</v>
+      </c>
+      <c r="L59" s="20">
+        <f t="shared" si="1"/>
+        <v>1.6871989019822438E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <v>43214</v>
       </c>
@@ -12625,20 +12621,20 @@
       <c r="H60" s="1">
         <v>16453100</v>
       </c>
-      <c r="J60" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.61541575545852822</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="3"/>
-        <v>0.37873655206659101</v>
-      </c>
-      <c r="L60" s="14">
-        <f t="shared" si="4"/>
+      <c r="J60" s="14">
+        <f>LN(G60/G59)</f>
         <v>-4.6987026547892843E-3</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="20">
+        <f t="shared" si="0"/>
+        <v>-3.9502413171403506E-3</v>
+      </c>
+      <c r="L60" s="20">
+        <f t="shared" si="1"/>
+        <v>1.5604406463642731E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>43215</v>
       </c>
@@ -12660,20 +12656,20 @@
       <c r="H61" s="1">
         <v>13548200</v>
       </c>
-      <c r="J61" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.0268997554585297</v>
-      </c>
-      <c r="K61" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0545231077607882</v>
-      </c>
-      <c r="L61" s="14">
-        <f t="shared" si="4"/>
+      <c r="J61" s="14">
+        <f>LN(G61/G60)</f>
         <v>-3.8112626293284363E-3</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="20">
+        <f t="shared" si="0"/>
+        <v>-3.062801291679503E-3</v>
+      </c>
+      <c r="L61" s="20">
+        <f t="shared" si="1"/>
+        <v>9.3807517523136312E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <v>43216</v>
       </c>
@@ -12695,20 +12691,20 @@
       <c r="H62" s="1">
         <v>10299500</v>
       </c>
-      <c r="J62" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.91913475545852918</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="3"/>
-        <v>0.84480869869181019</v>
-      </c>
-      <c r="L62" s="14">
-        <f t="shared" si="4"/>
+      <c r="J62" s="14">
+        <f>LN(G62/G61)</f>
         <v>9.9954984757016723E-4</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K62" s="20">
+        <f t="shared" si="0"/>
+        <v>1.7480111852191005E-3</v>
+      </c>
+      <c r="L62" s="20">
+        <f t="shared" si="1"/>
+        <v>3.0555431036510846E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <v>43217</v>
       </c>
@@ -12730,20 +12726,20 @@
       <c r="H63" s="1">
         <v>9384000</v>
       </c>
-      <c r="J63" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.6049407554585287</v>
-      </c>
-      <c r="K63" s="1">
-        <f t="shared" si="3"/>
-        <v>2.5758348285317925</v>
-      </c>
-      <c r="L63" s="14">
-        <f t="shared" si="4"/>
+      <c r="J63" s="14">
+        <f>LN(G63/G62)</f>
         <v>-6.3781574523988586E-3</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K63" s="20">
+        <f t="shared" si="0"/>
+        <v>-5.6296961147499248E-3</v>
+      </c>
+      <c r="L63" s="20">
+        <f t="shared" si="1"/>
+        <v>3.16934783444304E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <v>43220</v>
       </c>
@@ -12765,20 +12761,20 @@
       <c r="H64" s="1">
         <v>13744900</v>
       </c>
-      <c r="J64" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.2123627554585283</v>
-      </c>
-      <c r="K64" s="1">
-        <f t="shared" si="3"/>
-        <v>4.8945489617400524</v>
-      </c>
-      <c r="L64" s="14">
-        <f t="shared" si="4"/>
+      <c r="J64" s="14">
+        <f>LN(G64/G63)</f>
         <v>-5.6833414130703554E-3</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K64" s="20">
+        <f t="shared" si="0"/>
+        <v>-4.9348800754214217E-3</v>
+      </c>
+      <c r="L64" s="20">
+        <f t="shared" si="1"/>
+        <v>2.4353041358791336E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <v>43221</v>
       </c>
@@ -12800,20 +12796,20 @@
       <c r="H65" s="1">
         <v>10503400</v>
       </c>
-      <c r="J65" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.2123627554585283</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="3"/>
-        <v>4.8945489617400524</v>
-      </c>
-      <c r="L65" s="14">
-        <f t="shared" si="4"/>
+      <c r="J65" s="14">
+        <f>LN(G65/G64)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="20">
+        <f t="shared" si="0"/>
+        <v>7.484613376489333E-4</v>
+      </c>
+      <c r="L65" s="20">
+        <f t="shared" si="1"/>
+        <v>5.6019437395523058E-7</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <v>43222</v>
       </c>
@@ -12835,20 +12831,20 @@
       <c r="H66" s="1">
         <v>12162100</v>
       </c>
-      <c r="J66" s="1">
-        <f t="shared" si="2"/>
-        <v>-3.0549307554585283</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" si="3"/>
-        <v>9.3326019206464146</v>
-      </c>
-      <c r="L66" s="14">
-        <f t="shared" si="4"/>
+      <c r="J66" s="14">
+        <f>LN(G66/G65)</f>
         <v>-7.9373463026649414E-3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K66" s="20">
+        <f t="shared" si="0"/>
+        <v>-7.1888849650160076E-3</v>
+      </c>
+      <c r="L66" s="20">
+        <f t="shared" si="1"/>
+        <v>5.1680067040233208E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
         <v>43223</v>
       </c>
@@ -12870,20 +12866,20 @@
       <c r="H67" s="1">
         <v>15379100</v>
       </c>
-      <c r="J67" s="1">
-        <f t="shared" si="2"/>
-        <v>-3.7211367554585308</v>
-      </c>
-      <c r="K67" s="1">
-        <f t="shared" si="3"/>
-        <v>13.846858752824442</v>
-      </c>
-      <c r="L67" s="14">
-        <f t="shared" si="4"/>
+      <c r="J67" s="14">
+        <f>LN(G67/G66)</f>
         <v>-6.320849538298535E-3</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K67" s="20">
+        <f t="shared" si="0"/>
+        <v>-5.5723882006496021E-3</v>
+      </c>
+      <c r="L67" s="20">
+        <f t="shared" si="1"/>
+        <v>3.1051510258738912E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
         <v>43224</v>
       </c>
@@ -12905,20 +12901,20 @@
       <c r="H68" s="1">
         <v>11967900</v>
       </c>
-      <c r="J68" s="1">
-        <f t="shared" si="2"/>
-        <v>-2.5552657554585352</v>
-      </c>
-      <c r="K68" s="1">
-        <f t="shared" si="3"/>
-        <v>6.5293830810190787</v>
-      </c>
-      <c r="L68" s="14">
-        <f t="shared" si="4"/>
+      <c r="J68" s="14">
+        <f>LN(G68/G67)</f>
         <v>1.1035503622012055E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K68" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1783964959660989E-2</v>
+      </c>
+      <c r="L68" s="20">
+        <f t="shared" si="1"/>
+        <v>1.3886183017051802E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
         <v>43227</v>
       </c>
@@ -12940,20 +12936,20 @@
       <c r="H69" s="1">
         <v>9356700</v>
       </c>
-      <c r="J69" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.6343297554585234</v>
-      </c>
-      <c r="K69" s="1">
-        <f t="shared" si="3"/>
-        <v>2.6710337495771168</v>
-      </c>
-      <c r="L69" s="14">
-        <f t="shared" si="4"/>
+      <c r="J69" s="14">
+        <f>LN(G69/G68)</f>
         <v>8.6317978956176947E-3</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K69" s="20">
+        <f t="shared" ref="K69:K132" si="2">J69-$C$242</f>
+        <v>9.3802592332666284E-3</v>
+      </c>
+      <c r="L69" s="20">
+        <f t="shared" ref="L69:L132" si="3">K69*K69</f>
+        <v>8.7989263283283834E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
         <v>43228</v>
       </c>
@@ -12975,20 +12971,20 @@
       <c r="H70" s="1">
         <v>12543200</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="14">
+        <f>LN(G70/G69)</f>
+        <v>1.4703485711429024E-2</v>
+      </c>
+      <c r="K70" s="20">
         <f t="shared" si="2"/>
-        <v>-4.7178755458531896E-2</v>
-      </c>
-      <c r="K70" s="1">
+        <v>1.5451947049077958E-2</v>
+      </c>
+      <c r="L70" s="20">
         <f t="shared" si="3"/>
-        <v>2.225834966615953E-3</v>
-      </c>
-      <c r="L70" s="14">
-        <f t="shared" si="4"/>
-        <v>1.4703485711429024E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.3876266760750899E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <v>43229</v>
       </c>
@@ -13010,20 +13006,20 @@
       <c r="H71" s="1">
         <v>11368100</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="14">
+        <f>LN(G71/G70)</f>
+        <v>2.156944559186243E-2</v>
+      </c>
+      <c r="K71" s="20">
         <f t="shared" si="2"/>
-        <v>2.3237472445414653</v>
-      </c>
-      <c r="K71" s="1">
+        <v>2.2317906929511362E-2</v>
+      </c>
+      <c r="L71" s="20">
         <f t="shared" si="3"/>
-        <v>5.3998012565140527</v>
-      </c>
-      <c r="L71" s="14">
-        <f t="shared" si="4"/>
-        <v>2.156944559186243E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.9808896971433123E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <v>43230</v>
       </c>
@@ -13045,20 +13041,20 @@
       <c r="H72" s="1">
         <v>9159700</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="14">
+        <f>LN(G72/G71)</f>
+        <v>7.7295461662841994E-3</v>
+      </c>
+      <c r="K72" s="20">
         <f t="shared" si="2"/>
-        <v>3.1859072445414682</v>
-      </c>
-      <c r="K72" s="1">
+        <v>8.4780075039331323E-3</v>
+      </c>
+      <c r="L72" s="20">
         <f t="shared" si="3"/>
-        <v>10.150004970821811</v>
-      </c>
-      <c r="L72" s="14">
-        <f t="shared" si="4"/>
-        <v>7.7295461662841994E-3</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7.1876611236746494E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <v>43231</v>
       </c>
@@ -13080,20 +13076,20 @@
       <c r="H73" s="1">
         <v>10253000</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="14">
+        <f>LN(G73/G72)</f>
+        <v>-3.7694489603414772E-3</v>
+      </c>
+      <c r="K73" s="20">
         <f t="shared" si="2"/>
-        <v>2.7646272445414724</v>
-      </c>
-      <c r="K73" s="1">
+        <v>-3.0209876226925439E-3</v>
+      </c>
+      <c r="L73" s="20">
         <f t="shared" si="3"/>
-        <v>7.6431638012609744</v>
-      </c>
-      <c r="L73" s="14">
-        <f t="shared" si="4"/>
-        <v>-3.7694489603414772E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9.1263662164615481E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <v>43234</v>
       </c>
@@ -13115,20 +13111,20 @@
       <c r="H74" s="1">
         <v>8710700</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="14">
+        <f>LN(G74/G73)</f>
+        <v>3.5127476656936381E-4</v>
+      </c>
+      <c r="K74" s="20">
         <f t="shared" si="2"/>
-        <v>2.8038192445414722</v>
-      </c>
-      <c r="K74" s="1">
+        <v>1.0997361042182972E-3</v>
+      </c>
+      <c r="L74" s="20">
         <f t="shared" si="3"/>
-        <v>7.8614023560611122</v>
-      </c>
-      <c r="L74" s="14">
-        <f t="shared" si="4"/>
-        <v>3.5127476656936381E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.2094194989212375E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <v>43235</v>
       </c>
@@ -13150,20 +13146,20 @@
       <c r="H75" s="1">
         <v>11536200</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="14">
+        <f>LN(G75/G74)</f>
+        <v>-7.6677134696547314E-3</v>
+      </c>
+      <c r="K75" s="20">
         <f t="shared" si="2"/>
-        <v>1.9514482445414671</v>
-      </c>
-      <c r="K75" s="1">
+        <v>-6.9192521320057977E-3</v>
+      </c>
+      <c r="L75" s="20">
         <f t="shared" si="3"/>
-        <v>3.808150251123974</v>
-      </c>
-      <c r="L75" s="14">
-        <f t="shared" si="4"/>
-        <v>-7.6677134696547314E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.7876050066266779E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7">
         <v>43236</v>
       </c>
@@ -13185,20 +13181,20 @@
       <c r="H76" s="1">
         <v>7571100</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="14">
+        <f>LN(G76/G75)</f>
+        <v>2.7388544183005593E-3</v>
+      </c>
+      <c r="K76" s="20">
         <f t="shared" si="2"/>
-        <v>2.2551592445414741</v>
-      </c>
-      <c r="K76" s="1">
+        <v>3.4873157559494926E-3</v>
+      </c>
+      <c r="L76" s="20">
         <f t="shared" si="3"/>
-        <v>5.0857432182408724</v>
-      </c>
-      <c r="L76" s="14">
-        <f t="shared" si="4"/>
-        <v>2.7388544183005593E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.2161371181693581E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7">
         <v>43237</v>
       </c>
@@ -13220,20 +13216,20 @@
       <c r="H77" s="1">
         <v>8617200</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="14">
+        <f>LN(G77/G76)</f>
+        <v>-3.3583548683447854E-3</v>
+      </c>
+      <c r="K77" s="20">
         <f t="shared" si="2"/>
-        <v>1.8828672445414725</v>
-      </c>
-      <c r="K77" s="1">
+        <v>-2.6098935306958521E-3</v>
+      </c>
+      <c r="L77" s="20">
         <f t="shared" si="3"/>
-        <v>3.5451890605671972</v>
-      </c>
-      <c r="L77" s="14">
-        <f t="shared" si="4"/>
-        <v>-3.3583548683447854E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6.8115442415680607E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
         <v>43238</v>
       </c>
@@ -13255,20 +13251,20 @@
       <c r="H78" s="1">
         <v>11806300</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="14">
+        <f>LN(G78/G77)</f>
+        <v>-1.6333089046829306E-2</v>
+      </c>
+      <c r="K78" s="20">
         <f t="shared" si="2"/>
-        <v>8.997524454147765E-2</v>
-      </c>
-      <c r="K78" s="1">
+        <v>-1.5584627709180373E-2</v>
+      </c>
+      <c r="L78" s="20">
         <f t="shared" si="3"/>
-        <v>8.0955446302987035E-3</v>
-      </c>
-      <c r="L78" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.6333089046829306E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.4288062083375266E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7">
         <v>43241</v>
       </c>
@@ -13290,20 +13286,20 @@
       <c r="H79" s="1">
         <v>9441900</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="14">
+        <f>LN(G79/G78)</f>
+        <v>9.1366766276439089E-3</v>
+      </c>
+      <c r="K79" s="20">
         <f t="shared" si="2"/>
-        <v>1.089303244541469</v>
-      </c>
-      <c r="K79" s="1">
+        <v>9.8851379652928426E-3</v>
+      </c>
+      <c r="L79" s="20">
         <f t="shared" si="3"/>
-        <v>1.1865815585685713</v>
-      </c>
-      <c r="L79" s="14">
-        <f t="shared" si="4"/>
-        <v>9.1366766276439089E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9.7715952592873921E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7">
         <v>43242</v>
       </c>
@@ -13325,20 +13321,20 @@
       <c r="H80" s="1">
         <v>11507600</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="14">
+        <f>LN(G80/G79)</f>
+        <v>7.6389660915058008E-3</v>
+      </c>
+      <c r="K80" s="20">
         <f t="shared" si="2"/>
-        <v>1.9318552445414667</v>
-      </c>
-      <c r="K80" s="1">
+        <v>8.3874274291547337E-3</v>
+      </c>
+      <c r="L80" s="20">
         <f t="shared" si="3"/>
-        <v>3.7320646858623703</v>
-      </c>
-      <c r="L80" s="14">
-        <f t="shared" si="4"/>
-        <v>7.6389660915058008E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7.0348938879337189E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7">
         <v>43243</v>
       </c>
@@ -13360,20 +13356,20 @@
       <c r="H81" s="1">
         <v>11119300</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="14">
+        <f>LN(G81/G80)</f>
+        <v>-4.6119581424602972E-3</v>
+      </c>
+      <c r="K81" s="20">
         <f t="shared" si="2"/>
-        <v>1.4224022445414732</v>
-      </c>
-      <c r="K81" s="1">
+        <v>-3.8634968048113639E-3</v>
+      </c>
+      <c r="L81" s="20">
         <f t="shared" si="3"/>
-        <v>2.023228145276621</v>
-      </c>
-      <c r="L81" s="14">
-        <f t="shared" si="4"/>
-        <v>-4.6119581424602972E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.4926607560787619E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7">
         <v>43244</v>
       </c>
@@ -13395,20 +13391,20 @@
       <c r="H82" s="1">
         <v>14084800</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="14">
+        <f>LN(G82/G81)</f>
+        <v>-1.1264134120469272E-2</v>
+      </c>
+      <c r="K82" s="20">
         <f t="shared" si="2"/>
-        <v>0.18795924454147439</v>
-      </c>
-      <c r="K82" s="1">
+        <v>-1.0515672782820338E-2</v>
+      </c>
+      <c r="L82" s="20">
         <f t="shared" si="3"/>
-        <v>3.5328677608601769E-2</v>
-      </c>
-      <c r="L82" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.1264134120469272E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.1057937407534844E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7">
         <v>43245</v>
       </c>
@@ -13430,20 +13426,20 @@
       <c r="H83" s="1">
         <v>8283500</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="14">
+        <f>LN(G83/G82)</f>
+        <v>-5.1376852653139135E-3</v>
+      </c>
+      <c r="K83" s="20">
         <f t="shared" si="2"/>
-        <v>-0.37048175545852757</v>
-      </c>
-      <c r="K83" s="1">
+        <v>-4.3892239276649807E-3</v>
+      </c>
+      <c r="L83" s="20">
         <f t="shared" si="3"/>
-        <v>0.13725673112763223</v>
-      </c>
-      <c r="L83" s="14">
-        <f t="shared" si="4"/>
-        <v>-5.1376852653139135E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.92652866871868E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7">
         <v>43249</v>
       </c>
@@ -13465,20 +13461,20 @@
       <c r="H84" s="1">
         <v>30643800</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84" s="14">
+        <f>LN(G84/G83)</f>
+        <v>-4.3683940882541197E-2</v>
+      </c>
+      <c r="K84" s="20">
         <f t="shared" si="2"/>
-        <v>-5.0045687554585356</v>
-      </c>
-      <c r="K84" s="1">
+        <v>-4.2935479544892262E-2</v>
+      </c>
+      <c r="L84" s="20">
         <f t="shared" si="3"/>
-        <v>25.045708428111798</v>
-      </c>
-      <c r="L84" s="14">
-        <f t="shared" si="4"/>
-        <v>-4.3683940882541197E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.8434554037498618E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7">
         <v>43250</v>
       </c>
@@ -13500,20 +13496,20 @@
       <c r="H85" s="1">
         <v>17490800</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85" s="14">
+        <f>LN(G85/G84)</f>
+        <v>2.2588209398469953E-2</v>
+      </c>
+      <c r="K85" s="20">
         <f t="shared" si="2"/>
-        <v>-2.6336427554585242</v>
-      </c>
-      <c r="K85" s="1">
+        <v>2.3336670736118885E-2</v>
+      </c>
+      <c r="L85" s="20">
         <f t="shared" si="3"/>
-        <v>6.9360741633791676</v>
-      </c>
-      <c r="L85" s="14">
-        <f t="shared" si="4"/>
-        <v>2.2588209398469953E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.4460020104602749E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7">
         <v>43251</v>
       </c>
@@ -13535,20 +13531,20 @@
       <c r="H86" s="1">
         <v>19808200</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86" s="14">
+        <f>LN(G86/G85)</f>
+        <v>-1.2444440503345868E-2</v>
+      </c>
+      <c r="K86" s="20">
         <f t="shared" si="2"/>
-        <v>-3.9464707554585345</v>
-      </c>
-      <c r="K86" s="1">
+        <v>-1.1695979165696934E-2</v>
+      </c>
+      <c r="L86" s="20">
         <f t="shared" si="3"/>
-        <v>15.574631423689457</v>
-      </c>
-      <c r="L86" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.2444440503345868E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.3679592864441676E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7">
         <v>43252</v>
       </c>
@@ -13570,20 +13566,20 @@
       <c r="H87" s="1">
         <v>13594200</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87" s="14">
+        <f>LN(G87/G86)</f>
+        <v>1.2905819254899623E-2</v>
+      </c>
+      <c r="K87" s="20">
         <f t="shared" si="2"/>
-        <v>-2.58465475545853</v>
-      </c>
-      <c r="K87" s="1">
+        <v>1.3654280592548557E-2</v>
+      </c>
+      <c r="L87" s="20">
         <f t="shared" si="3"/>
-        <v>6.6804402049143929</v>
-      </c>
-      <c r="L87" s="14">
-        <f t="shared" si="4"/>
-        <v>1.2905819254899623E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.8643937850004817E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7">
         <v>43255</v>
       </c>
@@ -13605,20 +13601,20 @@
       <c r="H88" s="1">
         <v>9415400</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88" s="14">
+        <f>LN(G88/G87)</f>
+        <v>4.6110009756415401E-4</v>
+      </c>
+      <c r="K88" s="20">
         <f t="shared" si="2"/>
-        <v>-2.5356737554585322</v>
-      </c>
-      <c r="K88" s="1">
+        <v>1.2095614352130874E-3</v>
+      </c>
+      <c r="L88" s="20">
         <f t="shared" si="3"/>
-        <v>6.4296413941211767</v>
-      </c>
-      <c r="L88" s="14">
-        <f t="shared" si="4"/>
-        <v>4.6110009756415401E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.4630388655547438E-6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7">
         <v>43256</v>
       </c>
@@ -13640,20 +13636,20 @@
       <c r="H89" s="1">
         <v>10415200</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89" s="14">
+        <f>LN(G89/G88)</f>
+        <v>-5.640688432387137E-3</v>
+      </c>
+      <c r="K89" s="20">
         <f t="shared" si="2"/>
-        <v>-3.1333147554585281</v>
-      </c>
-      <c r="K89" s="1">
+        <v>-4.8922270947382041E-3</v>
+      </c>
+      <c r="L89" s="20">
         <f t="shared" si="3"/>
-        <v>9.8176613567741366</v>
-      </c>
-      <c r="L89" s="14">
-        <f t="shared" si="4"/>
-        <v>-5.640688432387137E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.3933885946490608E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7">
         <v>43257</v>
       </c>
@@ -13675,20 +13671,20 @@
       <c r="H90" s="1">
         <v>15453600</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90" s="14">
+        <f>LN(G90/G89)</f>
+        <v>2.3099194769131894E-2</v>
+      </c>
+      <c r="K90" s="20">
         <f t="shared" si="2"/>
-        <v>-0.66440475545853417</v>
-      </c>
-      <c r="K90" s="1">
+        <v>2.3847656106780826E-2</v>
+      </c>
+      <c r="L90" s="20">
         <f t="shared" si="3"/>
-        <v>0.44143367907591458</v>
-      </c>
-      <c r="L90" s="14">
-        <f t="shared" si="4"/>
-        <v>2.3099194769131894E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.6871070178728079E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7">
         <v>43258</v>
       </c>
@@ -13710,20 +13706,20 @@
       <c r="H91" s="1">
         <v>13444400</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91" s="14">
+        <f>LN(G91/G90)</f>
+        <v>3.9790819326875259E-3</v>
+      </c>
+      <c r="K91" s="20">
         <f t="shared" si="2"/>
-        <v>-0.2333207554585357</v>
-      </c>
-      <c r="K91" s="1">
+        <v>4.7275432703364588E-3</v>
+      </c>
+      <c r="L91" s="20">
         <f t="shared" si="3"/>
-        <v>5.4438574927741817E-2</v>
-      </c>
-      <c r="L91" s="14">
-        <f t="shared" si="4"/>
-        <v>3.9790819326875259E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.2349665372903539E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7">
         <v>43259</v>
       </c>
@@ -13745,20 +13741,20 @@
       <c r="H92" s="1">
         <v>10383200</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92" s="14">
+        <f>LN(G92/G91)</f>
+        <v>2.7938268478710751E-3</v>
+      </c>
+      <c r="K92" s="20">
         <f t="shared" si="2"/>
-        <v>7.0382244541477235E-2</v>
-      </c>
-      <c r="K92" s="1">
+        <v>3.5422881855200084E-3</v>
+      </c>
+      <c r="L92" s="20">
         <f t="shared" si="3"/>
-        <v>4.9536603466963022E-3</v>
-      </c>
-      <c r="L92" s="14">
-        <f t="shared" si="4"/>
-        <v>2.7938268478710751E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.2547805589274634E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7">
         <v>43262</v>
       </c>
@@ -13780,20 +13776,20 @@
       <c r="H93" s="1">
         <v>12642900</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93" s="14">
+        <f>LN(G93/G92)</f>
+        <v>-2.5231391812823175E-3</v>
+      </c>
+      <c r="K93" s="20">
         <f t="shared" si="2"/>
-        <v>-0.20393275545852418</v>
-      </c>
-      <c r="K93" s="1">
+        <v>-1.7746778436333842E-3</v>
+      </c>
+      <c r="L93" s="20">
         <f t="shared" si="3"/>
-        <v>4.1588568748906228E-2</v>
-      </c>
-      <c r="L93" s="14">
-        <f t="shared" si="4"/>
-        <v>-2.5231391812823175E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.1494814486832385E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7">
         <v>43263</v>
       </c>
@@ -13815,20 +13811,20 @@
       <c r="H94" s="1">
         <v>15294100</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94" s="14">
+        <f>LN(G94/G93)</f>
+        <v>-5.7913353185190504E-3</v>
+      </c>
+      <c r="K94" s="20">
         <f t="shared" si="2"/>
-        <v>-0.83095375545852335</v>
-      </c>
-      <c r="K94" s="1">
+        <v>-5.0428739808701176E-3</v>
+      </c>
+      <c r="L94" s="20">
         <f t="shared" si="3"/>
-        <v>0.69048414371062339</v>
-      </c>
-      <c r="L94" s="14">
-        <f t="shared" si="4"/>
-        <v>-5.7913353185190504E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.5430577986936827E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7">
         <v>43264</v>
       </c>
@@ -13850,20 +13846,20 @@
       <c r="H95" s="1">
         <v>14979700</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J95" s="14">
+        <f>LN(G95/G94)</f>
+        <v>-1.9985386794507069E-3</v>
+      </c>
+      <c r="K95" s="20">
         <f t="shared" si="2"/>
-        <v>-1.0464917554585327</v>
-      </c>
-      <c r="K95" s="1">
+        <v>-1.2500773418017736E-3</v>
+      </c>
+      <c r="L95" s="20">
         <f t="shared" si="3"/>
-        <v>1.0951449942426814</v>
-      </c>
-      <c r="L95" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.9985386794507069E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.5626933604861882E-6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7">
         <v>43265</v>
       </c>
@@ -13885,20 +13881,20 @@
       <c r="H96" s="1">
         <v>20487300</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J96" s="14">
+        <f>LN(G96/G95)</f>
+        <v>-1.7798678814984377E-2</v>
+      </c>
+      <c r="K96" s="20">
         <f t="shared" si="2"/>
-        <v>-2.9471577554585338</v>
-      </c>
-      <c r="K96" s="1">
+        <v>-1.7050217477335445E-2</v>
+      </c>
+      <c r="L96" s="20">
         <f t="shared" si="3"/>
-        <v>8.6857388355593823</v>
-      </c>
-      <c r="L96" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.7798678814984377E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.9070991602443507E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7">
         <v>43266</v>
       </c>
@@ -13920,20 +13916,20 @@
       <c r="H97" s="1">
         <v>26028600</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J97" s="14">
+        <f>LN(G97/G96)</f>
+        <v>-1.2041044692930141E-3</v>
+      </c>
+      <c r="K97" s="20">
         <f t="shared" si="2"/>
-        <v>-3.0745227554585313</v>
-      </c>
-      <c r="K97" s="1">
+        <v>-4.5564313164408077E-4</v>
+      </c>
+      <c r="L97" s="20">
         <f t="shared" si="3"/>
-        <v>9.4526901738323197</v>
-      </c>
-      <c r="L97" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.2041044692930141E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.0761066341442512E-7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7">
         <v>43269</v>
       </c>
@@ -13955,20 +13951,20 @@
       <c r="H98" s="1">
         <v>9786800</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98" s="14">
+        <f>LN(G98/G97)</f>
+        <v>2.5916413163475753E-3</v>
+      </c>
+      <c r="K98" s="20">
         <f t="shared" si="2"/>
-        <v>-2.8001997554585358</v>
-      </c>
-      <c r="K98" s="1">
+        <v>3.3401026539965086E-3</v>
+      </c>
+      <c r="L98" s="20">
         <f t="shared" si="3"/>
-        <v>7.8411186704700437</v>
-      </c>
-      <c r="L98" s="14">
-        <f t="shared" si="4"/>
-        <v>2.5916413163475753E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.1156285739234521E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7">
         <v>43270</v>
       </c>
@@ -13990,20 +13986,20 @@
       <c r="H99" s="1">
         <v>12707200</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J99" s="14">
+        <f>LN(G99/G98)</f>
+        <v>-5.840659722567686E-3</v>
+      </c>
+      <c r="K99" s="20">
         <f t="shared" si="2"/>
-        <v>-3.4174257554585239</v>
-      </c>
-      <c r="K99" s="1">
+        <v>-5.0921983849187523E-3</v>
+      </c>
+      <c r="L99" s="20">
         <f t="shared" si="3"/>
-        <v>11.678798794071263</v>
-      </c>
-      <c r="L99" s="14">
-        <f t="shared" si="4"/>
-        <v>-5.840659722567686E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.5930484391369149E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7">
         <v>43271</v>
       </c>
@@ -14025,20 +14021,20 @@
       <c r="H100" s="1">
         <v>8876900</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100" s="14">
+        <f>LN(G100/G99)</f>
+        <v>-9.2972724635306827E-5</v>
+      </c>
+      <c r="K100" s="20">
         <f t="shared" si="2"/>
-        <v>-3.4272217554585325</v>
-      </c>
-      <c r="K100" s="1">
+        <v>6.5548861301362648E-4</v>
+      </c>
+      <c r="L100" s="20">
         <f t="shared" si="3"/>
-        <v>11.745848961088265</v>
-      </c>
-      <c r="L100" s="14">
-        <f t="shared" si="4"/>
-        <v>-9.2972724635306827E-5</v>
-      </c>
-    </row>
-    <row r="101" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.2966532179052778E-7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7">
         <v>43272</v>
       </c>
@@ -14060,20 +14056,20 @@
       <c r="H101" s="1">
         <v>11048700</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101" s="14">
+        <f>LN(G101/G100)</f>
+        <v>-2.7897954270062332E-4</v>
+      </c>
+      <c r="K101" s="20">
         <f t="shared" si="2"/>
-        <v>-3.4566107554585273</v>
-      </c>
-      <c r="K101" s="1">
+        <v>4.6948179494830998E-4</v>
+      </c>
+      <c r="L101" s="20">
         <f t="shared" si="3"/>
-        <v>11.948157914751571</v>
-      </c>
-      <c r="L101" s="14">
-        <f t="shared" si="4"/>
-        <v>-2.7897954270062332E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.2041315578788698E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7">
         <v>43273</v>
       </c>
@@ -14095,20 +14091,20 @@
       <c r="H102" s="1">
         <v>19478900</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J102" s="14">
+        <f>LN(G102/G101)</f>
+        <v>-1.6506045619761295E-2</v>
+      </c>
+      <c r="K102" s="20">
         <f t="shared" si="2"/>
-        <v>-5.1809217554585274</v>
-      </c>
-      <c r="K102" s="1">
+        <v>-1.5757584282112363E-2</v>
+      </c>
+      <c r="L102" s="20">
         <f t="shared" si="3"/>
-        <v>26.841950236183468</v>
-      </c>
-      <c r="L102" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.6506045619761295E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.4830146240787461E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7">
         <v>43276</v>
       </c>
@@ -14130,20 +14126,20 @@
       <c r="H103" s="1">
         <v>16907600</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103" s="14">
+        <f>LN(G103/G102)</f>
+        <v>-9.1195050932844583E-3</v>
+      </c>
+      <c r="K103" s="20">
         <f t="shared" si="2"/>
-        <v>-6.1214587554585336</v>
-      </c>
-      <c r="K103" s="1">
+        <v>-8.3710437556355245E-3</v>
+      </c>
+      <c r="L103" s="20">
         <f t="shared" si="3"/>
-        <v>37.472257294779936</v>
-      </c>
-      <c r="L103" s="14">
-        <f t="shared" si="4"/>
-        <v>-9.1195050932844583E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7.0074373558764509E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7">
         <v>43277</v>
       </c>
@@ -14165,20 +14161,20 @@
       <c r="H104" s="1">
         <v>17086800</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104" s="14">
+        <f>LN(G104/G103)</f>
+        <v>6.6778392953145281E-4</v>
+      </c>
+      <c r="K104" s="20">
         <f t="shared" si="2"/>
-        <v>-6.0528777554585247</v>
-      </c>
-      <c r="K104" s="1">
+        <v>1.4162452671803861E-3</v>
+      </c>
+      <c r="L104" s="20">
         <f t="shared" si="3"/>
-        <v>36.637329122524626</v>
-      </c>
-      <c r="L104" s="14">
-        <f t="shared" si="4"/>
-        <v>6.6778392953145281E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.0057506568108431E-6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7">
         <v>43278</v>
       </c>
@@ -14200,20 +14196,20 @@
       <c r="H105" s="1">
         <v>16276800</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105" s="14">
+        <f>LN(G105/G104)</f>
+        <v>-1.5569760839898186E-2</v>
+      </c>
+      <c r="K105" s="20">
         <f t="shared" si="2"/>
-        <v>-7.6400287554585304</v>
-      </c>
-      <c r="K105" s="1">
+        <v>-1.4821299502249252E-2</v>
+      </c>
+      <c r="L105" s="20">
         <f t="shared" si="3"/>
-        <v>58.370039384233223</v>
-      </c>
-      <c r="L105" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.5569760839898186E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.1967091893537394E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7">
         <v>43279</v>
       </c>
@@ -14235,20 +14231,20 @@
       <c r="H106" s="1">
         <v>14491300</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J106" s="14">
+        <f>LN(G106/G105)</f>
+        <v>1.6237089404213673E-2</v>
+      </c>
+      <c r="K106" s="20">
         <f t="shared" si="2"/>
-        <v>-5.9842977554585275</v>
-      </c>
-      <c r="K106" s="1">
+        <v>1.6985550741862605E-2</v>
+      </c>
+      <c r="L106" s="20">
         <f t="shared" si="3"/>
-        <v>35.811819625985969</v>
-      </c>
-      <c r="L106" s="14">
-        <f t="shared" si="4"/>
-        <v>1.6237089404213673E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.8850893400438928E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7">
         <v>43280</v>
       </c>
@@ -14270,20 +14266,20 @@
       <c r="H107" s="1">
         <v>18972400</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J107" s="14">
+        <f>LN(G107/G106)</f>
+        <v>-6.9813780912378895E-3</v>
+      </c>
+      <c r="K107" s="20">
         <f t="shared" si="2"/>
-        <v>-6.6994997554585325</v>
-      </c>
-      <c r="K107" s="1">
+        <v>-6.2329167535889567E-3</v>
+      </c>
+      <c r="L107" s="20">
         <f t="shared" si="3"/>
-        <v>44.883296973388937</v>
-      </c>
-      <c r="L107" s="14">
-        <f t="shared" si="4"/>
-        <v>-6.9813780912378895E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.8849251257169896E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7">
         <v>43283</v>
       </c>
@@ -14305,20 +14301,20 @@
       <c r="H108" s="1">
         <v>11130000</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J108" s="14">
+        <f>LN(G108/G107)</f>
+        <v>8.4098783867435269E-3</v>
+      </c>
+      <c r="K108" s="20">
         <f t="shared" si="2"/>
-        <v>-5.8373397554585296</v>
-      </c>
-      <c r="K108" s="1">
+        <v>9.1583397243924607E-3</v>
+      </c>
+      <c r="L108" s="20">
         <f t="shared" si="3"/>
-        <v>34.074535420656645</v>
-      </c>
-      <c r="L108" s="14">
-        <f t="shared" si="4"/>
-        <v>8.4098783867435269E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>8.3875186507384968E-5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7">
         <v>43284</v>
       </c>
@@ -14340,20 +14336,20 @@
       <c r="H109" s="1">
         <v>8311700</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J109" s="14">
+        <f>LN(G109/G108)</f>
+        <v>-1.408812660160203E-2</v>
+      </c>
+      <c r="K109" s="20">
         <f t="shared" si="2"/>
-        <v>-7.2775327554585232</v>
-      </c>
-      <c r="K109" s="1">
+        <v>-1.3339665263953096E-2</v>
+      </c>
+      <c r="L109" s="20">
         <f t="shared" si="3"/>
-        <v>52.962483006771727</v>
-      </c>
-      <c r="L109" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.408812660160203E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.7794666935431683E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7">
         <v>43286</v>
       </c>
@@ -14375,20 +14371,20 @@
       <c r="H110" s="1">
         <v>10723400</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J110" s="14">
+        <f>LN(G110/G109)</f>
+        <v>6.4806430362479781E-3</v>
+      </c>
+      <c r="K110" s="20">
         <f t="shared" si="2"/>
-        <v>-6.6175527554585329</v>
-      </c>
-      <c r="K110" s="1">
+        <v>7.2291043738969118E-3</v>
+      </c>
+      <c r="L110" s="20">
         <f t="shared" si="3"/>
-        <v>43.792004471276819</v>
-      </c>
-      <c r="L110" s="14">
-        <f t="shared" si="4"/>
-        <v>6.4806430362479781E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.2259950048695458E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7">
         <v>43287</v>
       </c>
@@ -14410,20 +14406,20 @@
       <c r="H111" s="1">
         <v>12173700</v>
       </c>
-      <c r="J111" s="1">
+      <c r="J111" s="14">
+        <f>LN(G111/G110)</f>
+        <v>3.2726975882987259E-3</v>
+      </c>
+      <c r="K111" s="20">
         <f t="shared" si="2"/>
-        <v>-6.2826367554585261</v>
-      </c>
-      <c r="K111" s="1">
+        <v>4.0211589259476592E-3</v>
+      </c>
+      <c r="L111" s="20">
         <f t="shared" si="3"/>
-        <v>39.471524601038432</v>
-      </c>
-      <c r="L111" s="14">
-        <f t="shared" si="4"/>
-        <v>3.2726975882987259E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.6169719107728531E-5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7">
         <v>43290</v>
       </c>
@@ -14445,20 +14441,20 @@
       <c r="H112" s="1">
         <v>13900800</v>
       </c>
-      <c r="J112" s="1">
-        <f t="shared" ref="J112:J175" si="5">G112-$C$240</f>
-        <v>-3.1107847554585248</v>
-      </c>
-      <c r="K112" s="1">
-        <f t="shared" ref="K112:K175" si="6">J112*J112</f>
-        <v>9.6769817947931536</v>
-      </c>
-      <c r="L112" s="14">
-        <f t="shared" si="4"/>
+      <c r="J112" s="14">
+        <f>LN(G112/G111)</f>
         <v>3.0474609508465499E-2</v>
       </c>
-    </row>
-    <row r="113" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K112" s="20">
+        <f t="shared" si="2"/>
+        <v>3.1223070846114431E-2</v>
+      </c>
+      <c r="L112" s="20">
+        <f t="shared" si="3"/>
+        <v>9.7488015306148093E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7">
         <v>43291</v>
       </c>
@@ -14480,20 +14476,20 @@
       <c r="H113" s="1">
         <v>14575900</v>
       </c>
-      <c r="J113" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.7609167554585241</v>
-      </c>
-      <c r="K113" s="1">
-        <f t="shared" si="6"/>
-        <v>14.144494841488672</v>
-      </c>
-      <c r="L113" s="14">
-        <f t="shared" ref="L113:L176" si="7">LN(G113/G112)</f>
+      <c r="J113" s="14">
+        <f>LN(G113/G112)</f>
         <v>-6.1711409024957945E-3</v>
       </c>
-    </row>
-    <row r="114" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K113" s="20">
+        <f t="shared" si="2"/>
+        <v>-5.4226795648468617E-3</v>
+      </c>
+      <c r="L113" s="20">
+        <f t="shared" si="3"/>
+        <v>2.9405453663007748E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7">
         <v>43292</v>
       </c>
@@ -14515,20 +14511,20 @@
       <c r="H114" s="1">
         <v>10186500</v>
       </c>
-      <c r="J114" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.9874787554585254</v>
-      </c>
-      <c r="K114" s="1">
-        <f t="shared" si="6"/>
-        <v>15.89998682523307</v>
-      </c>
-      <c r="L114" s="14">
-        <f t="shared" si="7"/>
+      <c r="J114" s="14">
+        <f>LN(G114/G113)</f>
         <v>-2.1595366445857516E-3</v>
       </c>
-    </row>
-    <row r="115" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K114" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.4110753069368183E-3</v>
+      </c>
+      <c r="L114" s="20">
+        <f t="shared" si="3"/>
+        <v>1.9911335218468363E-6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7">
         <v>43293</v>
       </c>
@@ -14550,20 +14546,20 @@
       <c r="H115" s="1">
         <v>12456800</v>
       </c>
-      <c r="J115" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.5343617554585336</v>
-      </c>
-      <c r="K115" s="1">
-        <f t="shared" si="6"/>
-        <v>12.491713018447927</v>
-      </c>
-      <c r="L115" s="14">
-        <f t="shared" si="7"/>
+      <c r="J115" s="14">
+        <f>LN(G115/G114)</f>
         <v>4.3143532314379087E-3</v>
       </c>
-    </row>
-    <row r="116" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K115" s="20">
+        <f t="shared" si="2"/>
+        <v>5.0628145690868424E-3</v>
+      </c>
+      <c r="L115" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5632091360957991E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7">
         <v>43294</v>
       </c>
@@ -14585,20 +14581,20 @@
       <c r="H116" s="1">
         <v>21289100</v>
       </c>
-      <c r="J116" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.0170277554585283</v>
-      </c>
-      <c r="K116" s="1">
-        <f t="shared" si="6"/>
-        <v>16.13651198812418</v>
-      </c>
-      <c r="L116" s="14">
-        <f t="shared" si="7"/>
+      <c r="J116" s="14">
+        <f>LN(G116/G115)</f>
         <v>-4.5963515713117317E-3</v>
       </c>
-    </row>
-    <row r="117" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K116" s="20">
+        <f t="shared" si="2"/>
+        <v>-3.8478902336627984E-3</v>
+      </c>
+      <c r="L116" s="20">
+        <f t="shared" si="3"/>
+        <v>1.4806259250317545E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7">
         <v>43297</v>
       </c>
@@ -14620,20 +14616,20 @@
       <c r="H117" s="1">
         <v>24662600</v>
       </c>
-      <c r="J117" s="1">
-        <f t="shared" si="5"/>
-        <v>0.13987124454146738</v>
-      </c>
-      <c r="K117" s="1">
-        <f t="shared" si="6"/>
-        <v>1.9563965049578969E-2</v>
-      </c>
-      <c r="L117" s="14">
-        <f t="shared" si="7"/>
+      <c r="J117" s="14">
+        <f>LN(G117/G116)</f>
         <v>3.890970533403737E-2</v>
       </c>
-    </row>
-    <row r="118" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K117" s="20">
+        <f t="shared" si="2"/>
+        <v>3.9658166671686305E-2</v>
+      </c>
+      <c r="L117" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5727701837592505E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7">
         <v>43298</v>
       </c>
@@ -14655,20 +14651,20 @@
       <c r="H118" s="1">
         <v>14821900</v>
       </c>
-      <c r="J118" s="1">
-        <f t="shared" si="5"/>
-        <v>6.1067244541476384E-2</v>
-      </c>
-      <c r="K118" s="1">
-        <f t="shared" si="6"/>
-        <v>3.7292083558884775E-3</v>
-      </c>
-      <c r="L118" s="14">
-        <f t="shared" si="7"/>
+      <c r="J118" s="14">
+        <f>LN(G118/G117)</f>
         <v>-7.2372260394152211E-4</v>
       </c>
-    </row>
-    <row r="119" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K118" s="20">
+        <f t="shared" si="2"/>
+        <v>2.4738733707411185E-5</v>
+      </c>
+      <c r="L118" s="20">
+        <f t="shared" si="3"/>
+        <v>6.1200494544620238E-10</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7">
         <v>43299</v>
       </c>
@@ -14690,20 +14686,20 @@
       <c r="H119" s="1">
         <v>14244900</v>
       </c>
-      <c r="J119" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0756622445414763</v>
-      </c>
-      <c r="K119" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1570492643320067</v>
-      </c>
-      <c r="L119" s="14">
-        <f t="shared" si="7"/>
+      <c r="J119" s="14">
+        <f>LN(G119/G118)</f>
         <v>9.2780667368026447E-3</v>
       </c>
-    </row>
-    <row r="120" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K119" s="20">
+        <f t="shared" si="2"/>
+        <v>1.0026528074451578E-2</v>
+      </c>
+      <c r="L119" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0053126522776567E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7">
         <v>43300</v>
       </c>
@@ -14725,20 +14721,20 @@
       <c r="H120" s="1">
         <v>16775300</v>
       </c>
-      <c r="J120" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.53980875545852314</v>
-      </c>
-      <c r="K120" s="1">
-        <f t="shared" si="6"/>
-        <v>0.29139349246967966</v>
-      </c>
-      <c r="L120" s="14">
-        <f t="shared" si="7"/>
+      <c r="J120" s="14">
+        <f>LN(G120/G119)</f>
         <v>-1.4813701012271115E-2</v>
       </c>
-    </row>
-    <row r="121" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K120" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.4065239674622181E-2</v>
+      </c>
+      <c r="L120" s="20">
+        <f t="shared" si="3"/>
+        <v>1.9783096710456589E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7">
         <v>43301</v>
       </c>
@@ -14760,20 +14756,20 @@
       <c r="H121" s="1">
         <v>13578100</v>
       </c>
-      <c r="J121" s="1">
-        <f t="shared" si="5"/>
-        <v>0.82940024454147476</v>
-      </c>
-      <c r="K121" s="1">
-        <f t="shared" si="6"/>
-        <v>0.68790476564545811</v>
-      </c>
-      <c r="L121" s="14">
-        <f t="shared" si="7"/>
+      <c r="J121" s="14">
+        <f>LN(G121/G120)</f>
         <v>1.2569631890276597E-2</v>
       </c>
-    </row>
-    <row r="122" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K121" s="20">
+        <f t="shared" si="2"/>
+        <v>1.331809322792553E-2</v>
+      </c>
+      <c r="L121" s="20">
+        <f t="shared" si="3"/>
+        <v>1.7737160722771587E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7">
         <v>43304</v>
       </c>
@@ -14795,20 +14791,20 @@
       <c r="H122" s="1">
         <v>18140000</v>
       </c>
-      <c r="J122" s="1">
-        <f t="shared" si="5"/>
-        <v>2.8684472445414713</v>
-      </c>
-      <c r="K122" s="1">
-        <f t="shared" si="6"/>
-        <v>8.2279895947175596</v>
-      </c>
-      <c r="L122" s="14">
-        <f t="shared" si="7"/>
+      <c r="J122" s="14">
+        <f>LN(G122/G121)</f>
         <v>1.843083859632124E-2</v>
       </c>
-    </row>
-    <row r="123" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K122" s="20">
+        <f t="shared" si="2"/>
+        <v>1.9179299933970172E-2</v>
+      </c>
+      <c r="L122" s="20">
+        <f t="shared" si="3"/>
+        <v>3.6784554595718826E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7">
         <v>43305</v>
       </c>
@@ -14830,20 +14826,20 @@
       <c r="H123" s="1">
         <v>14000400</v>
       </c>
-      <c r="J123" s="1">
-        <f t="shared" si="5"/>
-        <v>3.6564882445414781</v>
-      </c>
-      <c r="K123" s="1">
-        <f t="shared" si="6"/>
-        <v>13.369906282470021</v>
-      </c>
-      <c r="L123" s="14">
-        <f t="shared" si="7"/>
+      <c r="J123" s="14">
+        <f>LN(G123/G122)</f>
         <v>7.0330307445456378E-3</v>
       </c>
-    </row>
-    <row r="124" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K123" s="20">
+        <f t="shared" si="2"/>
+        <v>7.7814920821945716E-3</v>
+      </c>
+      <c r="L123" s="20">
+        <f t="shared" si="3"/>
+        <v>6.0551619025256812E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7">
         <v>43306</v>
       </c>
@@ -14865,20 +14861,20 @@
       <c r="H124" s="1">
         <v>13329100</v>
       </c>
-      <c r="J124" s="1">
-        <f t="shared" si="5"/>
-        <v>4.6710832445414781</v>
-      </c>
-      <c r="K124" s="1">
-        <f t="shared" si="6"/>
-        <v>21.819018677436141</v>
-      </c>
-      <c r="L124" s="14">
-        <f t="shared" si="7"/>
+      <c r="J124" s="14">
+        <f>LN(G124/G123)</f>
         <v>8.9827244594265134E-3</v>
       </c>
-    </row>
-    <row r="125" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K124" s="20">
+        <f t="shared" si="2"/>
+        <v>9.7311857970754471E-3</v>
+      </c>
+      <c r="L124" s="20">
+        <f t="shared" si="3"/>
+        <v>9.46959770172029E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7">
         <v>43307</v>
       </c>
@@ -14900,20 +14896,20 @@
       <c r="H125" s="1">
         <v>11897800</v>
       </c>
-      <c r="J125" s="1">
-        <f t="shared" si="5"/>
-        <v>4.3460172445414713</v>
-      </c>
-      <c r="K125" s="1">
-        <f t="shared" si="6"/>
-        <v>18.887865889851842</v>
-      </c>
-      <c r="L125" s="14">
-        <f t="shared" si="7"/>
+      <c r="J125" s="14">
+        <f>LN(G125/G124)</f>
         <v>-2.8691990843441742E-3</v>
       </c>
-    </row>
-    <row r="126" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K125" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.1207377466952409E-3</v>
+      </c>
+      <c r="L125" s="20">
+        <f t="shared" si="3"/>
+        <v>4.4975285902580082E-6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7">
         <v>43308</v>
       </c>
@@ -14935,20 +14931,20 @@
       <c r="H126" s="1">
         <v>12802700</v>
       </c>
-      <c r="J126" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5083712445414648</v>
-      </c>
-      <c r="K126" s="1">
-        <f t="shared" si="6"/>
-        <v>30.342153767691286</v>
-      </c>
-      <c r="L126" s="14">
-        <f t="shared" si="7"/>
+      <c r="J126" s="14">
+        <f>LN(G126/G125)</f>
         <v>1.0221842918150878E-2</v>
       </c>
-    </row>
-    <row r="127" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K126" s="20">
+        <f t="shared" si="2"/>
+        <v>1.0970304255799812E-2</v>
+      </c>
+      <c r="L126" s="20">
+        <f t="shared" si="3"/>
+        <v>1.2034757546481946E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7">
         <v>43311</v>
       </c>
@@ -14970,20 +14966,20 @@
       <c r="H127" s="1">
         <v>13411600</v>
       </c>
-      <c r="J127" s="1">
-        <f t="shared" si="5"/>
-        <v>6.1979152445414769</v>
-      </c>
-      <c r="K127" s="1">
-        <f t="shared" si="6"/>
-        <v>38.414153378519636</v>
-      </c>
-      <c r="L127" s="14">
-        <f t="shared" si="7"/>
+      <c r="J127" s="14">
+        <f>LN(G127/G126)</f>
         <v>6.0148976915181639E-3</v>
       </c>
-    </row>
-    <row r="128" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K127" s="20">
+        <f t="shared" si="2"/>
+        <v>6.7633590291670976E-3</v>
+      </c>
+      <c r="L127" s="20">
+        <f t="shared" si="3"/>
+        <v>4.5743025357416103E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7">
         <v>43312</v>
       </c>
@@ -15005,20 +15001,20 @@
       <c r="H128" s="1">
         <v>15843800</v>
       </c>
-      <c r="J128" s="1">
-        <f t="shared" si="5"/>
-        <v>4.4445202445414651</v>
-      </c>
-      <c r="K128" s="1">
-        <f t="shared" si="6"/>
-        <v>19.753760204138924</v>
-      </c>
-      <c r="L128" s="14">
-        <f t="shared" si="7"/>
+      <c r="J128" s="14">
+        <f>LN(G128/G127)</f>
         <v>-1.5366432995865289E-2</v>
       </c>
-    </row>
-    <row r="129" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K128" s="20">
+        <f t="shared" si="2"/>
+        <v>-1.4617971658216355E-2</v>
+      </c>
+      <c r="L128" s="20">
+        <f t="shared" si="3"/>
+        <v>2.1368509540041662E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B129" s="7">
         <v>43313</v>
       </c>
@@ -15040,20 +15036,20 @@
       <c r="H129" s="1">
         <v>13531600</v>
       </c>
-      <c r="J129" s="1">
-        <f t="shared" si="5"/>
-        <v>5.1439072445414666</v>
-      </c>
-      <c r="K129" s="1">
-        <f t="shared" si="6"/>
-        <v>26.459781740446182</v>
-      </c>
-      <c r="L129" s="14">
-        <f t="shared" si="7"/>
+      <c r="J129" s="14">
+        <f>LN(G129/G128)</f>
         <v>6.1576373752645864E-3</v>
       </c>
-    </row>
-    <row r="130" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K129" s="20">
+        <f t="shared" si="2"/>
+        <v>6.9060987129135193E-3</v>
+      </c>
+      <c r="L129" s="20">
+        <f t="shared" si="3"/>
+        <v>4.7694199432505769E-5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B130" s="7">
         <v>43314</v>
       </c>
@@ -15075,20 +15071,20 @@
       <c r="H130" s="1">
         <v>11058100</v>
       </c>
-      <c r="J130" s="1">
-        <f t="shared" si="5"/>
-        <v>5.6265802445414721</v>
-      </c>
-      <c r="K130" s="1">
-        <f t="shared" si="6"/>
-        <v>31.658405248264373</v>
-      </c>
-      <c r="L130" s="14">
-        <f t="shared" si="7"/>
+      <c r="J130" s="14">
+        <f>LN(G130/G129)</f>
         <v>4.2276088168790331E-3</v>
       </c>
-    </row>
-    <row r="131" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K130" s="20">
+        <f t="shared" si="2"/>
+        <v>4.9760701545279659E-3</v>
+      </c>
+      <c r="L130" s="20">
+        <f t="shared" si="3"/>
+        <v>2.4761274182783976E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B131" s="7">
         <v>43315</v>
       </c>
@@ -15110,20 +15106,20 @@
       <c r="H131" s="1">
         <v>11016100</v>
       </c>
-      <c r="J131" s="1">
-        <f t="shared" si="5"/>
-        <v>6.5525142445414701</v>
-      </c>
-      <c r="K131" s="1">
-        <f t="shared" si="6"/>
-        <v>42.935442924918874</v>
-      </c>
-      <c r="L131" s="14">
-        <f t="shared" si="7"/>
+      <c r="J131" s="14">
+        <f>LN(G131/G130)</f>
         <v>8.0603272979051076E-3</v>
       </c>
-    </row>
-    <row r="132" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K131" s="20">
+        <f t="shared" si="2"/>
+        <v>8.8087886355540414E-3</v>
+      </c>
+      <c r="L131" s="20">
+        <f t="shared" si="3"/>
+        <v>7.7594757225866025E-5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B132" s="7">
         <v>43318</v>
       </c>
@@ -15145,20 +15141,20 @@
       <c r="H132" s="1">
         <v>9857400</v>
       </c>
-      <c r="J132" s="1">
-        <f t="shared" si="5"/>
-        <v>6.5820782445414778</v>
-      </c>
-      <c r="K132" s="1">
-        <f t="shared" si="6"/>
-        <v>43.323754017266225</v>
-      </c>
-      <c r="L132" s="14">
-        <f t="shared" si="7"/>
+      <c r="J132" s="14">
+        <f>LN(G132/G131)</f>
         <v>2.5628965899611434E-4</v>
       </c>
-    </row>
-    <row r="133" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K132" s="20">
+        <f t="shared" si="2"/>
+        <v>1.0047509966450477E-3</v>
+      </c>
+      <c r="L132" s="20">
+        <f t="shared" si="3"/>
+        <v>1.0095245652592167E-6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B133" s="7">
         <v>43319</v>
       </c>
@@ -15180,20 +15176,20 @@
       <c r="H133" s="1">
         <v>10562100</v>
       </c>
-      <c r="J133" s="1">
-        <f t="shared" si="5"/>
-        <v>7.0056472445414641</v>
-      </c>
-      <c r="K133" s="1">
-        <f t="shared" si="6"/>
-        <v>49.079093314951407</v>
-      </c>
-      <c r="L133" s="14">
-        <f t="shared" si="7"/>
+      <c r="J133" s="14">
+        <f>LN(G133/G132)</f>
         <v>3.6647164679994809E-3</v>
       </c>
-    </row>
-    <row r="134" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K133" s="20">
+        <f t="shared" ref="K133:K196" si="4">J133-$C$242</f>
+        <v>4.4131778056484142E-3</v>
+      </c>
+      <c r="L133" s="20">
+        <f t="shared" ref="L133:L196" si="5">K133*K133</f>
+        <v>1.9476138344267751E-5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B134" s="7">
         <v>43320</v>
       </c>
@@ -15215,20 +15211,20 @@
       <c r="H134" s="1">
         <v>8997100</v>
       </c>
-      <c r="J134" s="1">
+      <c r="J134" s="14">
+        <f>LN(G134/G133)</f>
+        <v>2.039541452981972E-3</v>
+      </c>
+      <c r="K134" s="20">
+        <f t="shared" si="4"/>
+        <v>2.7880027906309053E-3</v>
+      </c>
+      <c r="L134" s="20">
         <f t="shared" si="5"/>
-        <v>7.2420512445414715</v>
-      </c>
-      <c r="K134" s="1">
-        <f t="shared" si="6"/>
-        <v>52.447306228564678</v>
-      </c>
-      <c r="L134" s="14">
-        <f t="shared" si="7"/>
-        <v>2.039541452981972E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7.7729595605657162E-6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B135" s="7">
         <v>43321</v>
       </c>
@@ -15250,20 +15246,20 @@
       <c r="H135" s="1">
         <v>9694200</v>
       </c>
-      <c r="J135" s="1">
+      <c r="J135" s="14">
+        <f>LN(G135/G134)</f>
+        <v>-7.7556176344351201E-3</v>
+      </c>
+      <c r="K135" s="20">
+        <f t="shared" si="4"/>
+        <v>-7.0071562967861864E-3</v>
+      </c>
+      <c r="L135" s="20">
         <f t="shared" si="5"/>
-        <v>6.3456582445414682</v>
-      </c>
-      <c r="K135" s="1">
-        <f t="shared" si="6"/>
-        <v>40.267378556517109</v>
-      </c>
-      <c r="L135" s="14">
-        <f t="shared" si="7"/>
-        <v>-7.7556176344351201E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.9100239367590305E-5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B136" s="7">
         <v>43322</v>
       </c>
@@ -15285,20 +15281,20 @@
       <c r="H136" s="1">
         <v>12630600</v>
       </c>
-      <c r="J136" s="1">
+      <c r="J136" s="14">
+        <f>LN(G136/G135)</f>
+        <v>-9.8878203305749583E-3</v>
+      </c>
+      <c r="K136" s="20">
+        <f t="shared" si="4"/>
+        <v>-9.1393589929260246E-3</v>
+      </c>
+      <c r="L136" s="20">
         <f t="shared" si="5"/>
-        <v>5.2128612445414717</v>
-      </c>
-      <c r="K136" s="1">
-        <f t="shared" si="6"/>
-        <v>27.17392235484246</v>
-      </c>
-      <c r="L136" s="14">
-        <f t="shared" si="7"/>
-        <v>-9.8878203305749583E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>8.3527882801577799E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B137" s="7">
         <v>43325</v>
       </c>
@@ -15320,20 +15316,20 @@
       <c r="H137" s="1">
         <v>10336300</v>
       </c>
-      <c r="J137" s="1">
+      <c r="J137" s="14">
+        <f>LN(G137/G136)</f>
+        <v>-1.6026880599897025E-2</v>
+      </c>
+      <c r="K137" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.5278419262248091E-2</v>
+      </c>
+      <c r="L137" s="20">
         <f t="shared" si="5"/>
-        <v>3.4003692445414657</v>
-      </c>
-      <c r="K137" s="1">
-        <f t="shared" si="6"/>
-        <v>11.562510999223498</v>
-      </c>
-      <c r="L137" s="14">
-        <f t="shared" si="7"/>
-        <v>-1.6026880599897025E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.334300951530335E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B138" s="7">
         <v>43326</v>
       </c>
@@ -15355,20 +15351,20 @@
       <c r="H138" s="1">
         <v>10597600</v>
       </c>
-      <c r="J138" s="1">
+      <c r="J138" s="14">
+        <f>LN(G138/G137)</f>
+        <v>6.6509990461168173E-3</v>
+      </c>
+      <c r="K138" s="20">
+        <f t="shared" si="4"/>
+        <v>7.3994603837657501E-3</v>
+      </c>
+      <c r="L138" s="20">
         <f t="shared" si="5"/>
-        <v>4.1490112445414695</v>
-      </c>
-      <c r="K138" s="1">
-        <f t="shared" si="6"/>
-        <v>17.214294307331553</v>
-      </c>
-      <c r="L138" s="14">
-        <f t="shared" si="7"/>
-        <v>6.6509990461168173E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.4752013970918782E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7">
         <v>43327</v>
       </c>
@@ -15390,20 +15386,20 @@
       <c r="H139" s="1">
         <v>10152100</v>
       </c>
-      <c r="J139" s="1">
+      <c r="J139" s="14">
+        <f>LN(G139/G138)</f>
+        <v>-8.3206524583275127E-3</v>
+      </c>
+      <c r="K139" s="20">
+        <f t="shared" si="4"/>
+        <v>-7.5721911206785789E-3</v>
+      </c>
+      <c r="L139" s="20">
         <f t="shared" si="5"/>
-        <v>3.2132122445414666</v>
-      </c>
-      <c r="K139" s="1">
-        <f t="shared" si="6"/>
-        <v>10.32473292847121</v>
-      </c>
-      <c r="L139" s="14">
-        <f t="shared" si="7"/>
-        <v>-8.3206524583275127E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.7338078368083513E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B140" s="7">
         <v>43328</v>
       </c>
@@ -15425,20 +15421,20 @@
       <c r="H140" s="1">
         <v>10118600</v>
       </c>
-      <c r="J140" s="1">
+      <c r="J140" s="14">
+        <f>LN(G140/G139)</f>
+        <v>9.3667372845665491E-3</v>
+      </c>
+      <c r="K140" s="20">
+        <f t="shared" si="4"/>
+        <v>1.0115198622215483E-2</v>
+      </c>
+      <c r="L140" s="20">
         <f t="shared" si="5"/>
-        <v>4.2672132445414661</v>
-      </c>
-      <c r="K140" s="1">
-        <f t="shared" si="6"/>
-        <v>18.209108874390108</v>
-      </c>
-      <c r="L140" s="14">
-        <f t="shared" si="7"/>
-        <v>9.3667372845665491E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.0231724316687E-4</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B141" s="7">
         <v>43329</v>
       </c>
@@ -15460,20 +15456,20 @@
       <c r="H141" s="1">
         <v>8505100</v>
       </c>
-      <c r="J141" s="1">
+      <c r="J141" s="14">
+        <f>LN(G141/G140)</f>
+        <v>0</v>
+      </c>
+      <c r="K141" s="20">
+        <f t="shared" si="4"/>
+        <v>7.484613376489333E-4</v>
+      </c>
+      <c r="L141" s="20">
         <f t="shared" si="5"/>
-        <v>4.2672132445414661</v>
-      </c>
-      <c r="K141" s="1">
-        <f t="shared" si="6"/>
-        <v>18.209108874390108</v>
-      </c>
-      <c r="L141" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.6019437395523058E-7</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B142" s="7">
         <v>43332</v>
       </c>
@@ -15495,20 +15491,20 @@
       <c r="H142" s="1">
         <v>8618700</v>
       </c>
-      <c r="J142" s="1">
+      <c r="J142" s="14">
+        <f>LN(G142/G141)</f>
+        <v>-1.307834675634538E-3</v>
+      </c>
+      <c r="K142" s="20">
+        <f t="shared" si="4"/>
+        <v>-5.5937333798560473E-4</v>
+      </c>
+      <c r="L142" s="20">
         <f t="shared" si="5"/>
-        <v>4.1194542445414726</v>
-      </c>
-      <c r="K142" s="1">
-        <f t="shared" si="6"/>
-        <v>16.969903272870756</v>
-      </c>
-      <c r="L142" s="14">
-        <f t="shared" si="7"/>
-        <v>-1.307834675634538E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.1289853124915757E-7</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7">
         <v>43333</v>
       </c>
@@ -15530,20 +15526,20 @@
       <c r="H143" s="1">
         <v>10976700</v>
       </c>
-      <c r="J143" s="1">
+      <c r="J143" s="14">
+        <f>LN(G143/G142)</f>
+        <v>6.0885421033628302E-3</v>
+      </c>
+      <c r="K143" s="20">
+        <f t="shared" si="4"/>
+        <v>6.837003441011763E-3</v>
+      </c>
+      <c r="L143" s="20">
         <f t="shared" si="5"/>
-        <v>4.8089842445414774</v>
-      </c>
-      <c r="K143" s="1">
-        <f t="shared" si="6"/>
-        <v>23.126329464248165</v>
-      </c>
-      <c r="L143" s="14">
-        <f t="shared" si="7"/>
-        <v>6.0885421033628302E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.6744616052406691E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B144" s="7">
         <v>43334</v>
       </c>
@@ -15565,20 +15561,20 @@
       <c r="H144" s="1">
         <v>8314700</v>
       </c>
-      <c r="J144" s="1">
+      <c r="J144" s="14">
+        <f>LN(G144/G143)</f>
+        <v>-3.0395666260318891E-3</v>
+      </c>
+      <c r="K144" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.2911052883829558E-3</v>
+      </c>
+      <c r="L144" s="20">
         <f t="shared" si="5"/>
-        <v>4.4642272445414761</v>
-      </c>
-      <c r="K144" s="1">
-        <f t="shared" si="6"/>
-        <v>19.929324890906379</v>
-      </c>
-      <c r="L144" s="14">
-        <f t="shared" si="7"/>
-        <v>-3.0395666260318891E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>5.2491634424563473E-6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B145" s="7">
         <v>43335</v>
       </c>
@@ -15600,20 +15596,20 @@
       <c r="H145" s="1">
         <v>9265400</v>
       </c>
-      <c r="J145" s="1">
+      <c r="J145" s="14">
+        <f>LN(G145/G144)</f>
+        <v>-2.0896905739306707E-3</v>
+      </c>
+      <c r="K145" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.3412292362817374E-3</v>
+      </c>
+      <c r="L145" s="20">
         <f t="shared" si="5"/>
-        <v>4.2278152445414747</v>
-      </c>
-      <c r="K145" s="1">
-        <f t="shared" si="6"/>
-        <v>17.87442174197729</v>
-      </c>
-      <c r="L145" s="14">
-        <f t="shared" si="7"/>
-        <v>-2.0896905739306707E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.7988958642568927E-6</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B146" s="7">
         <v>43336</v>
       </c>
@@ -15635,20 +15631,20 @@
       <c r="H146" s="1">
         <v>8845700</v>
       </c>
-      <c r="J146" s="1">
+      <c r="J146" s="14">
+        <f>LN(G146/G145)</f>
+        <v>-4.3593337027280314E-4</v>
+      </c>
+      <c r="K146" s="20">
+        <f t="shared" si="4"/>
+        <v>3.1252796737613015E-4</v>
+      </c>
+      <c r="L146" s="20">
         <f t="shared" si="5"/>
-        <v>4.178559244541475</v>
-      </c>
-      <c r="K146" s="1">
-        <f t="shared" si="6"/>
-        <v>17.460357360143021</v>
-      </c>
-      <c r="L146" s="14">
-        <f t="shared" si="7"/>
-        <v>-4.3593337027280314E-4</v>
-      </c>
-    </row>
-    <row r="147" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9.767373039225547E-8</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B147" s="7">
         <v>43339</v>
       </c>
@@ -15670,20 +15666,20 @@
       <c r="H147" s="1">
         <v>13768000</v>
       </c>
-      <c r="J147" s="1">
+      <c r="J147" s="14">
+        <f>LN(G147/G146)</f>
+        <v>1.754662671592442E-2</v>
+      </c>
+      <c r="K147" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8295088053573352E-2</v>
+      </c>
+      <c r="L147" s="20">
         <f t="shared" si="5"/>
-        <v>6.1782082445414659</v>
-      </c>
-      <c r="K147" s="1">
-        <f t="shared" si="6"/>
-        <v>38.17025711292014</v>
-      </c>
-      <c r="L147" s="14">
-        <f t="shared" si="7"/>
-        <v>1.754662671592442E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.3471024688800239E-4</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B148" s="7">
         <v>43340</v>
       </c>
@@ -15705,20 +15701,20 @@
       <c r="H148" s="1">
         <v>8302600</v>
       </c>
-      <c r="J148" s="1">
+      <c r="J148" s="14">
+        <f>LN(G148/G147)</f>
+        <v>-4.8959401627607698E-3</v>
+      </c>
+      <c r="K148" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.1474788251118361E-3</v>
+      </c>
+      <c r="L148" s="20">
         <f t="shared" si="5"/>
-        <v>5.6167232445414754</v>
-      </c>
-      <c r="K148" s="1">
-        <f t="shared" si="6"/>
-        <v>31.54758000577252</v>
-      </c>
-      <c r="L148" s="14">
-        <f t="shared" si="7"/>
-        <v>-4.8959401627607698E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.7201580604751055E-5</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B149" s="7">
         <v>43341</v>
       </c>
@@ -15740,20 +15736,20 @@
       <c r="H149" s="1">
         <v>7221700</v>
       </c>
-      <c r="J149" s="1">
+      <c r="J149" s="14">
+        <f>LN(G149/G148)</f>
+        <v>-3.2771758093825105E-3</v>
+      </c>
+      <c r="K149" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.5287144717335772E-3</v>
+      </c>
+      <c r="L149" s="20">
         <f t="shared" si="5"/>
-        <v>5.2424172445414712</v>
-      </c>
-      <c r="K149" s="1">
-        <f t="shared" si="6"/>
-        <v>27.482938565865791</v>
-      </c>
-      <c r="L149" s="14">
-        <f t="shared" si="7"/>
-        <v>-3.2771758093825105E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6.3943968795548239E-6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B150" s="7">
         <v>43342</v>
       </c>
@@ -15775,20 +15771,20 @@
       <c r="H150" s="1">
         <v>8991800</v>
       </c>
-      <c r="J150" s="1">
+      <c r="J150" s="14">
+        <f>LN(G150/G149)</f>
+        <v>-4.9361480441213234E-3</v>
+      </c>
+      <c r="K150" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.1876867064723905E-3</v>
+      </c>
+      <c r="L150" s="20">
         <f t="shared" si="5"/>
-        <v>4.6809402445414747</v>
-      </c>
-      <c r="K150" s="1">
-        <f t="shared" si="6"/>
-        <v>21.911201572968</v>
-      </c>
-      <c r="L150" s="14">
-        <f t="shared" si="7"/>
-        <v>-4.9361480441213234E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.7536719951565578E-5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B151" s="7">
         <v>43343</v>
       </c>
@@ -15810,20 +15806,20 @@
       <c r="H151" s="1">
         <v>13065700</v>
       </c>
-      <c r="J151" s="1">
+      <c r="J151" s="14">
+        <f>LN(G151/G150)</f>
+        <v>-5.3097202283229946E-3</v>
+      </c>
+      <c r="K151" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.5612588906740609E-3</v>
+      </c>
+      <c r="L151" s="20">
         <f t="shared" si="5"/>
-        <v>4.080056244541467</v>
-      </c>
-      <c r="K151" s="1">
-        <f t="shared" si="6"/>
-        <v>16.64685895862182</v>
-      </c>
-      <c r="L151" s="14">
-        <f t="shared" si="7"/>
-        <v>-5.3097202283229946E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.0805082667753165E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B152" s="7">
         <v>43347</v>
       </c>
@@ -15845,20 +15841,20 @@
       <c r="H152" s="1">
         <v>10174200</v>
       </c>
-      <c r="J152" s="1">
+      <c r="J152" s="14">
+        <f>LN(G152/G151)</f>
+        <v>4.9623710352527661E-3</v>
+      </c>
+      <c r="K152" s="20">
+        <f t="shared" si="4"/>
+        <v>5.7108323729016999E-3</v>
+      </c>
+      <c r="L152" s="20">
         <f t="shared" si="5"/>
-        <v>4.6415342445414751</v>
-      </c>
-      <c r="K152" s="1">
-        <f t="shared" si="6"/>
-        <v>21.543840143251202</v>
-      </c>
-      <c r="L152" s="14">
-        <f t="shared" si="7"/>
-        <v>4.9623710352527661E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.2613606391382062E-5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B153" s="7">
         <v>43348</v>
       </c>
@@ -15880,20 +15876,20 @@
       <c r="H153" s="1">
         <v>11462400</v>
       </c>
-      <c r="J153" s="1">
+      <c r="J153" s="14">
+        <f>LN(G153/G152)</f>
+        <v>-4.8751745607913772E-3</v>
+      </c>
+      <c r="K153" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.1267132231424444E-3</v>
+      </c>
+      <c r="L153" s="20">
         <f t="shared" si="5"/>
-        <v>4.0898982445414731</v>
-      </c>
-      <c r="K153" s="1">
-        <f t="shared" si="6"/>
-        <v>16.727267650703425</v>
-      </c>
-      <c r="L153" s="14">
-        <f t="shared" si="7"/>
-        <v>-4.8751745607913772E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.7029762026058701E-5</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B154" s="7">
         <v>43349</v>
       </c>
@@ -15915,20 +15911,20 @@
       <c r="H154" s="1">
         <v>9877600</v>
       </c>
-      <c r="J154" s="1">
+      <c r="J154" s="14">
+        <f>LN(G154/G153)</f>
+        <v>-4.2852862987565006E-3</v>
+      </c>
+      <c r="K154" s="20">
+        <f t="shared" si="4"/>
+        <v>-3.5368249611075673E-3</v>
+      </c>
+      <c r="L154" s="20">
         <f t="shared" si="5"/>
-        <v>3.6072252445414676</v>
-      </c>
-      <c r="K154" s="1">
-        <f t="shared" si="6"/>
-        <v>13.012073964857251</v>
-      </c>
-      <c r="L154" s="14">
-        <f t="shared" si="7"/>
-        <v>-4.2852862987565006E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.2509130805513544E-5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B155" s="7">
         <v>43350</v>
       </c>
@@ -15950,20 +15946,20 @@
       <c r="H155" s="1">
         <v>10955600</v>
       </c>
-      <c r="J155" s="1">
+      <c r="J155" s="14">
+        <f>LN(G155/G154)</f>
+        <v>1.9263638835048927E-3</v>
+      </c>
+      <c r="K155" s="20">
+        <f t="shared" si="4"/>
+        <v>2.6748252211538258E-3</v>
+      </c>
+      <c r="L155" s="20">
         <f t="shared" si="5"/>
-        <v>3.823945244541477</v>
-      </c>
-      <c r="K155" s="1">
-        <f t="shared" si="6"/>
-        <v>14.622557233251376</v>
-      </c>
-      <c r="L155" s="14">
-        <f t="shared" si="7"/>
-        <v>1.9263638835048927E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7.1546899637206128E-6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B156" s="7">
         <v>43353</v>
       </c>
@@ -15985,20 +15981,20 @@
       <c r="H156" s="1">
         <v>8276900</v>
       </c>
-      <c r="J156" s="1">
+      <c r="J156" s="14">
+        <f>LN(G156/G155)</f>
+        <v>-5.3502279312914484E-3</v>
+      </c>
+      <c r="K156" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.6017665936425155E-3</v>
+      </c>
+      <c r="L156" s="20">
         <f t="shared" si="5"/>
-        <v>3.2230622445414667</v>
-      </c>
-      <c r="K156" s="1">
-        <f t="shared" si="6"/>
-        <v>10.388130232188677</v>
-      </c>
-      <c r="L156" s="14">
-        <f t="shared" si="7"/>
-        <v>-5.3502279312914484E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.1176255782364241E-5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B157" s="7">
         <v>43354</v>
       </c>
@@ -16020,20 +16016,20 @@
       <c r="H157" s="1">
         <v>9333800</v>
       </c>
-      <c r="J157" s="1">
+      <c r="J157" s="14">
+        <f>LN(G157/G156)</f>
+        <v>6.3119579772175863E-3</v>
+      </c>
+      <c r="K157" s="20">
+        <f t="shared" si="4"/>
+        <v>7.0604193148665201E-3</v>
+      </c>
+      <c r="L157" s="20">
         <f t="shared" si="5"/>
-        <v>3.9322982445414709</v>
-      </c>
-      <c r="K157" s="1">
-        <f t="shared" si="6"/>
-        <v>15.462969484023933</v>
-      </c>
-      <c r="L157" s="14">
-        <f t="shared" si="7"/>
-        <v>6.3119579772175863E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.9849520901740223E-5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B158" s="7">
         <v>43355</v>
       </c>
@@ -16055,20 +16051,20 @@
       <c r="H158" s="1">
         <v>10800800</v>
       </c>
-      <c r="J158" s="1">
+      <c r="J158" s="14">
+        <f>LN(G158/G157)</f>
+        <v>-1.1867735051353825E-2</v>
+      </c>
+      <c r="K158" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.1119273713704891E-2</v>
+      </c>
+      <c r="L158" s="20">
         <f t="shared" si="5"/>
-        <v>2.6024872445414644</v>
-      </c>
-      <c r="K158" s="1">
-        <f t="shared" si="6"/>
-        <v>6.772939858001024</v>
-      </c>
-      <c r="L158" s="14">
-        <f t="shared" si="7"/>
-        <v>-1.1867735051353825E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.2363824792028857E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B159" s="7">
         <v>43356</v>
       </c>
@@ -16090,20 +16086,20 @@
       <c r="H159" s="1">
         <v>12470800</v>
       </c>
-      <c r="J159" s="1">
+      <c r="J159" s="14">
+        <f>LN(G159/G158)</f>
+        <v>3.8834784524558598E-3</v>
+      </c>
+      <c r="K159" s="20">
+        <f t="shared" si="4"/>
+        <v>4.6319397901047931E-3</v>
+      </c>
+      <c r="L159" s="20">
         <f t="shared" si="5"/>
-        <v>3.0359052445414676</v>
-      </c>
-      <c r="K159" s="1">
-        <f t="shared" si="6"/>
-        <v>9.216720653834388</v>
-      </c>
-      <c r="L159" s="14">
-        <f t="shared" si="7"/>
-        <v>3.8834784524558598E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.1454866219156033E-5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B160" s="7">
         <v>43357</v>
       </c>
@@ -16125,20 +16121,20 @@
       <c r="H160" s="1">
         <v>10337900</v>
       </c>
-      <c r="J160" s="1">
+      <c r="J160" s="14">
+        <f>LN(G160/G159)</f>
+        <v>-1.7617869092000283E-4</v>
+      </c>
+      <c r="K160" s="20">
+        <f t="shared" si="4"/>
+        <v>5.7228264672893052E-4</v>
+      </c>
+      <c r="L160" s="20">
         <f t="shared" si="5"/>
-        <v>3.0162062445414648</v>
-      </c>
-      <c r="K160" s="1">
-        <f t="shared" si="6"/>
-        <v>9.0975001096109267</v>
-      </c>
-      <c r="L160" s="14">
-        <f t="shared" si="7"/>
-        <v>-1.7617869092000283E-4</v>
-      </c>
-    </row>
-    <row r="161" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.2750742774706991E-7</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B161" s="7">
         <v>43360</v>
       </c>
@@ -16160,20 +16156,20 @@
       <c r="H161" s="1">
         <v>9561300</v>
       </c>
-      <c r="J161" s="1">
+      <c r="J161" s="14">
+        <f>LN(G161/G160)</f>
+        <v>2.9910386365981094E-3</v>
+      </c>
+      <c r="K161" s="20">
+        <f t="shared" si="4"/>
+        <v>3.7394999742470427E-3</v>
+      </c>
+      <c r="L161" s="20">
         <f t="shared" si="5"/>
-        <v>3.351113244541466</v>
-      </c>
-      <c r="K161" s="1">
-        <f t="shared" si="6"/>
-        <v>11.229959977741231</v>
-      </c>
-      <c r="L161" s="14">
-        <f t="shared" si="7"/>
-        <v>2.9910386365981094E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.3983860057393633E-5</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B162" s="7">
         <v>43361</v>
       </c>
@@ -16195,20 +16191,20 @@
       <c r="H162" s="1">
         <v>7944200</v>
       </c>
-      <c r="J162" s="1">
+      <c r="J162" s="14">
+        <f>LN(G162/G161)</f>
+        <v>4.0327209097066304E-3</v>
+      </c>
+      <c r="K162" s="20">
+        <f t="shared" si="4"/>
+        <v>4.7811822473555633E-3</v>
+      </c>
+      <c r="L162" s="20">
         <f t="shared" si="5"/>
-        <v>3.8042462445414742</v>
-      </c>
-      <c r="K162" s="1">
-        <f t="shared" si="6"/>
-        <v>14.47228948910791</v>
-      </c>
-      <c r="L162" s="14">
-        <f t="shared" si="7"/>
-        <v>4.0327209097066304E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.2859703682427993E-5</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B163" s="7">
         <v>43362</v>
       </c>
@@ -16230,20 +16226,20 @@
       <c r="H163" s="1">
         <v>16052800</v>
       </c>
-      <c r="J163" s="1">
+      <c r="J163" s="14">
+        <f>LN(G163/G162)</f>
+        <v>2.8632526076740293E-2</v>
+      </c>
+      <c r="K163" s="20">
+        <f t="shared" si="4"/>
+        <v>2.9380987414389225E-2</v>
+      </c>
+      <c r="L163" s="20">
         <f t="shared" si="5"/>
-        <v>7.0746012445414692</v>
-      </c>
-      <c r="K163" s="1">
-        <f t="shared" si="6"/>
-        <v>50.049982769267707</v>
-      </c>
-      <c r="L163" s="14">
-        <f t="shared" si="7"/>
-        <v>2.8632526076740293E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>8.6324242144449807E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B164" s="7">
         <v>43363</v>
       </c>
@@ -16265,20 +16261,20 @@
       <c r="H164" s="1">
         <v>15590000</v>
       </c>
-      <c r="J164" s="1">
+      <c r="J164" s="14">
+        <f>LN(G164/G163)</f>
+        <v>8.5502491660193469E-3</v>
+      </c>
+      <c r="K164" s="20">
+        <f t="shared" si="4"/>
+        <v>9.2987105036682807E-3</v>
+      </c>
+      <c r="L164" s="20">
         <f t="shared" si="5"/>
-        <v>8.0694902445414698</v>
-      </c>
-      <c r="K164" s="1">
-        <f t="shared" si="6"/>
-        <v>65.116672806749946</v>
-      </c>
-      <c r="L164" s="14">
-        <f t="shared" si="7"/>
-        <v>8.5502491660193469E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>8.646601703103081E-5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B165" s="7">
         <v>43364</v>
       </c>
@@ -16300,20 +16296,20 @@
       <c r="H165" s="1">
         <v>24788200</v>
       </c>
-      <c r="J165" s="1">
+      <c r="J165" s="14">
+        <f>LN(G165/G164)</f>
+        <v>-6.5967577162597971E-3</v>
+      </c>
+      <c r="K165" s="20">
+        <f t="shared" si="4"/>
+        <v>-5.8482963786108642E-3</v>
+      </c>
+      <c r="L165" s="20">
         <f t="shared" si="5"/>
-        <v>7.3011562445414739</v>
-      </c>
-      <c r="K165" s="1">
-        <f t="shared" si="6"/>
-        <v>53.306882507206957</v>
-      </c>
-      <c r="L165" s="14">
-        <f t="shared" si="7"/>
-        <v>-6.5967577162597971E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3.4202570532072949E-5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B166" s="7">
         <v>43367</v>
       </c>
@@ -16335,20 +16331,20 @@
       <c r="H166" s="1">
         <v>12492500</v>
       </c>
-      <c r="J166" s="1">
+      <c r="J166" s="14">
+        <f>LN(G166/G165)</f>
+        <v>-9.6346868901746301E-3</v>
+      </c>
+      <c r="K166" s="20">
+        <f t="shared" si="4"/>
+        <v>-8.8862255525256964E-3</v>
+      </c>
+      <c r="L166" s="20">
         <f t="shared" si="5"/>
-        <v>6.188058244541466</v>
-      </c>
-      <c r="K166" s="1">
-        <f t="shared" si="6"/>
-        <v>38.292064837837607</v>
-      </c>
-      <c r="L166" s="14">
-        <f t="shared" si="7"/>
-        <v>-9.6346868901746301E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>7.8965004570360624E-5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B167" s="7">
         <v>43368</v>
       </c>
@@ -16370,20 +16366,20 @@
       <c r="H167" s="1">
         <v>9308300</v>
       </c>
-      <c r="J167" s="1">
+      <c r="J167" s="14">
+        <f>LN(G167/G166)</f>
+        <v>-2.8312892321459573E-3</v>
+      </c>
+      <c r="K167" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.082827894497024E-3</v>
+      </c>
+      <c r="L167" s="20">
         <f t="shared" si="5"/>
-        <v>5.8629922445414735</v>
-      </c>
-      <c r="K167" s="1">
-        <f t="shared" si="6"/>
-        <v>34.374678059553467</v>
-      </c>
-      <c r="L167" s="14">
-        <f t="shared" si="7"/>
-        <v>-2.8312892321459573E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.3381720380949056E-6</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B168" s="7">
         <v>43369</v>
       </c>
@@ -16405,20 +16401,20 @@
       <c r="H168" s="1">
         <v>14023600</v>
       </c>
-      <c r="J168" s="1">
+      <c r="J168" s="14">
+        <f>LN(G168/G167)</f>
+        <v>-1.1840624907168798E-2</v>
+      </c>
+      <c r="K168" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.1092163569519864E-2</v>
+      </c>
+      <c r="L168" s="20">
         <f t="shared" si="5"/>
-        <v>4.5134752445414676</v>
-      </c>
-      <c r="K168" s="1">
-        <f t="shared" si="6"/>
-        <v>20.371458783088663</v>
-      </c>
-      <c r="L168" s="14">
-        <f t="shared" si="7"/>
-        <v>-1.1840624907168798E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.2303609265298365E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B169" s="7">
         <v>43370</v>
       </c>
@@ -16440,20 +16436,20 @@
       <c r="H169" s="1">
         <v>13283000</v>
       </c>
-      <c r="J169" s="1">
+      <c r="J169" s="14">
+        <f>LN(G169/G168)</f>
+        <v>-4.356553260251611E-3</v>
+      </c>
+      <c r="K169" s="20">
+        <f t="shared" si="4"/>
+        <v>-3.6080919226026778E-3</v>
+      </c>
+      <c r="L169" s="20">
         <f t="shared" si="5"/>
-        <v>4.0209512445414646</v>
-      </c>
-      <c r="K169" s="1">
-        <f t="shared" si="6"/>
-        <v>16.168048910979554</v>
-      </c>
-      <c r="L169" s="14">
-        <f t="shared" si="7"/>
-        <v>-4.356553260251611E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.3018327321950687E-5</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B170" s="7">
         <v>43371</v>
       </c>
@@ -16475,20 +16471,20 @@
       <c r="H170" s="1">
         <v>15815100</v>
       </c>
-      <c r="J170" s="1">
+      <c r="J170" s="14">
+        <f>LN(G170/G169)</f>
+        <v>-1.477857702670282E-2</v>
+      </c>
+      <c r="K170" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.4030115689053886E-2</v>
+      </c>
+      <c r="L170" s="20">
         <f t="shared" si="5"/>
-        <v>2.3660752445414772</v>
-      </c>
-      <c r="K170" s="1">
-        <f t="shared" si="6"/>
-        <v>5.5983120628320115</v>
-      </c>
-      <c r="L170" s="14">
-        <f t="shared" si="7"/>
-        <v>-1.477857702670282E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.9684414624823599E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B171" s="7">
         <v>43374</v>
       </c>
@@ -16510,20 +16506,20 @@
       <c r="H171" s="1">
         <v>10146300</v>
       </c>
-      <c r="J171" s="1">
+      <c r="J171" s="14">
+        <f>LN(G171/G170)</f>
+        <v>5.8319542436388967E-3</v>
+      </c>
+      <c r="K171" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5804155812878296E-3</v>
+      </c>
+      <c r="L171" s="20">
         <f t="shared" si="5"/>
-        <v>3.0162062445414648</v>
-      </c>
-      <c r="K171" s="1">
-        <f t="shared" si="6"/>
-        <v>9.0975001096109267</v>
-      </c>
-      <c r="L171" s="14">
-        <f t="shared" si="7"/>
-        <v>5.8319542436388967E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4.3301869222455641E-5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B172" s="7">
         <v>43375</v>
       </c>
@@ -16545,20 +16541,20 @@
       <c r="H172" s="1">
         <v>13753100</v>
       </c>
-      <c r="J172" s="1">
+      <c r="J172" s="14">
+        <f>LN(G172/G171)</f>
+        <v>4.1324385229282177E-3</v>
+      </c>
+      <c r="K172" s="20">
+        <f t="shared" si="4"/>
+        <v>4.8808998605771505E-3</v>
+      </c>
+      <c r="L172" s="20">
         <f t="shared" si="5"/>
-        <v>3.4791802445414675</v>
-      </c>
-      <c r="K172" s="1">
-        <f t="shared" si="6"/>
-        <v>12.104695174007626</v>
-      </c>
-      <c r="L172" s="14">
-        <f t="shared" si="7"/>
-        <v>4.1324385229282177E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.3823183448982048E-5</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B173" s="7">
         <v>43376</v>
       </c>
@@ -16580,20 +16576,20 @@
       <c r="H173" s="1">
         <v>17142000</v>
       </c>
-      <c r="J173" s="1">
+      <c r="J173" s="14">
+        <f>LN(G173/G172)</f>
+        <v>9.3446499703189502E-3</v>
+      </c>
+      <c r="K173" s="20">
+        <f t="shared" si="4"/>
+        <v>1.0093111307967884E-2</v>
+      </c>
+      <c r="L173" s="20">
         <f t="shared" si="5"/>
-        <v>4.533181244541467</v>
-      </c>
-      <c r="K173" s="1">
-        <f t="shared" si="6"/>
-        <v>20.549732195862525</v>
-      </c>
-      <c r="L173" s="14">
-        <f t="shared" si="7"/>
-        <v>9.3446499703189502E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>1.0187089587502918E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B174" s="7">
         <v>43377</v>
       </c>
@@ -16615,20 +16611,20 @@
       <c r="H174" s="1">
         <v>16357400</v>
       </c>
-      <c r="J174" s="1">
+      <c r="J174" s="14">
+        <f>LN(G174/G173)</f>
+        <v>8.9756004906307515E-3</v>
+      </c>
+      <c r="K174" s="20">
+        <f t="shared" si="4"/>
+        <v>9.7240618282796853E-3</v>
+      </c>
+      <c r="L174" s="20">
         <f t="shared" si="5"/>
-        <v>5.5548722445414711</v>
-      </c>
-      <c r="K174" s="1">
-        <f t="shared" si="6"/>
-        <v>30.856605653177201</v>
-      </c>
-      <c r="L174" s="14">
-        <f t="shared" si="7"/>
-        <v>8.9756004906307515E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9.4557378440206062E-5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B175" s="7">
         <v>43378</v>
       </c>
@@ -16650,20 +16646,20 @@
       <c r="H175" s="1">
         <v>13777600</v>
       </c>
-      <c r="J175" s="1">
+      <c r="J175" s="14">
+        <f>LN(G175/G174)</f>
+        <v>-5.6548595387515225E-3</v>
+      </c>
+      <c r="K175" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.9063982011025888E-3</v>
+      </c>
+      <c r="L175" s="20">
         <f t="shared" si="5"/>
-        <v>4.910112244541466</v>
-      </c>
-      <c r="K175" s="1">
-        <f t="shared" si="6"/>
-        <v>24.109202253996035</v>
-      </c>
-      <c r="L175" s="14">
-        <f t="shared" si="7"/>
-        <v>-5.6548595387515225E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2.4072743307782718E-5</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B176" s="7">
         <v>43381</v>
       </c>
@@ -16685,20 +16681,20 @@
       <c r="H176" s="1">
         <v>14370900</v>
       </c>
-      <c r="J176" s="1">
-        <f t="shared" ref="J176:J232" si="8">G176-$C$240</f>
-        <v>5.6044702445414742</v>
-      </c>
-      <c r="K176" s="1">
-        <f t="shared" ref="K176:K232" si="9">J176*J176</f>
-        <v>31.410086721950773</v>
-      </c>
-      <c r="L176" s="14">
-        <f t="shared" si="7"/>
+      <c r="J176" s="14">
+        <f>LN(G176/G175)</f>
         <v>6.088536514702726E-3</v>
       </c>
-    </row>
-    <row r="177" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K176" s="20">
+        <f t="shared" si="4"/>
+        <v>6.8369978523516589E-3</v>
+      </c>
+      <c r="L176" s="20">
+        <f t="shared" si="5"/>
+        <v>4.6744539633061196E-5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B177" s="7">
         <v>43382</v>
       </c>
@@ -16720,20 +16716,20 @@
       <c r="H177" s="1">
         <v>14069500</v>
       </c>
-      <c r="J177" s="1">
-        <f t="shared" si="8"/>
-        <v>4.8109142445414648</v>
-      </c>
-      <c r="K177" s="1">
-        <f t="shared" si="9"/>
-        <v>23.144895868331972</v>
-      </c>
-      <c r="L177" s="14">
-        <f t="shared" ref="L177:L232" si="10">LN(G177/G176)</f>
+      <c r="J177" s="14">
+        <f>LN(G177/G176)</f>
         <v>-6.9613967173671031E-3</v>
       </c>
-    </row>
-    <row r="178" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K177" s="20">
+        <f t="shared" si="4"/>
+        <v>-6.2129353797181694E-3</v>
+      </c>
+      <c r="L177" s="20">
+        <f t="shared" si="5"/>
+        <v>3.8600566032553751E-5</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B178" s="7">
         <v>43383</v>
       </c>
@@ -16755,20 +16751,20 @@
       <c r="H178" s="1">
         <v>23086400</v>
       </c>
-      <c r="J178" s="1">
-        <f t="shared" si="8"/>
-        <v>1.7854852445414764</v>
-      </c>
-      <c r="K178" s="1">
-        <f t="shared" si="9"/>
-        <v>3.1879575584753357</v>
-      </c>
-      <c r="L178" s="14">
-        <f t="shared" si="10"/>
+      <c r="J178" s="14">
+        <f>LN(G178/G177)</f>
         <v>-2.6993970910926465E-2</v>
       </c>
-    </row>
-    <row r="179" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K178" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.6245509573277533E-2</v>
+      </c>
+      <c r="L178" s="20">
+        <f t="shared" si="5"/>
+        <v>6.8882677276100267E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B179" s="7">
         <v>43384</v>
       </c>
@@ -16790,20 +16786,20 @@
       <c r="H179" s="1">
         <v>33705600</v>
       </c>
-      <c r="J179" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.5276097554585277</v>
-      </c>
-      <c r="K179" s="1">
-        <f t="shared" si="9"/>
-        <v>2.3335915649720631</v>
-      </c>
-      <c r="L179" s="14">
-        <f t="shared" si="10"/>
+      <c r="J179" s="14">
+        <f>LN(G179/G178)</f>
         <v>-3.0421295523800105E-2</v>
       </c>
-    </row>
-    <row r="180" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K179" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.9672834186151173E-2</v>
+      </c>
+      <c r="L179" s="20">
+        <f t="shared" si="5"/>
+        <v>8.8047708863882171E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B180" s="7">
         <v>43385</v>
       </c>
@@ -16825,20 +16821,20 @@
       <c r="H180" s="1">
         <v>32075700</v>
       </c>
-      <c r="J180" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.6981037554585328</v>
-      </c>
-      <c r="K180" s="1">
-        <f t="shared" si="9"/>
-        <v>7.2797638752194382</v>
-      </c>
-      <c r="L180" s="14">
-        <f t="shared" si="10"/>
+      <c r="J180" s="14">
+        <f>LN(G180/G179)</f>
         <v>-1.0972767628256146E-2</v>
       </c>
-    </row>
-    <row r="181" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K180" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.0224306290607213E-2</v>
+      </c>
+      <c r="L180" s="20">
+        <f t="shared" si="5"/>
+        <v>1.0453643912415023E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B181" s="7">
         <v>43388</v>
       </c>
@@ -16860,20 +16856,20 @@
       <c r="H181" s="1">
         <v>18903200</v>
       </c>
-      <c r="J181" s="1">
-        <f t="shared" si="8"/>
-        <v>-3.3031907554585302</v>
-      </c>
-      <c r="K181" s="1">
-        <f t="shared" si="9"/>
-        <v>10.911069166946696</v>
-      </c>
-      <c r="L181" s="14">
-        <f t="shared" si="10"/>
+      <c r="J181" s="14">
+        <f>LN(G181/G180)</f>
         <v>-5.7199360592746617E-3</v>
       </c>
-    </row>
-    <row r="182" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K181" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.971474721625728E-3</v>
+      </c>
+      <c r="L181" s="20">
+        <f t="shared" si="5"/>
+        <v>2.4715560907763609E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B182" s="7">
         <v>43389</v>
       </c>
@@ -16895,20 +16891,20 @@
       <c r="H182" s="1">
         <v>19302800</v>
       </c>
-      <c r="J182" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.0415487554585354</v>
-      </c>
-      <c r="K182" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0848238099972241</v>
-      </c>
-      <c r="L182" s="14">
-        <f t="shared" si="10"/>
+      <c r="J182" s="14">
+        <f>LN(G182/G181)</f>
         <v>2.1214125807535369E-2</v>
       </c>
-    </row>
-    <row r="183" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K182" s="20">
+        <f t="shared" si="4"/>
+        <v>2.1962587145184301E-2</v>
+      </c>
+      <c r="L182" s="20">
+        <f t="shared" si="5"/>
+        <v>4.8235523410981472E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B183" s="7">
         <v>43390</v>
       </c>
@@ -16930,20 +16926,20 @@
       <c r="H183" s="1">
         <v>18794500</v>
       </c>
-      <c r="J183" s="1">
-        <f t="shared" si="8"/>
-        <v>0.15870024454146403</v>
-      </c>
-      <c r="K183" s="1">
-        <f t="shared" si="9"/>
-        <v>2.5185767617520484E-2</v>
-      </c>
-      <c r="L183" s="14">
-        <f t="shared" si="10"/>
+      <c r="J183" s="14">
+        <f>LN(G183/G182)</f>
         <v>1.1078128063180981E-2</v>
       </c>
-    </row>
-    <row r="184" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K183" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1826589400829915E-2</v>
+      </c>
+      <c r="L183" s="20">
+        <f t="shared" si="5"/>
+        <v>1.3986821685582247E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B184" s="7">
         <v>43391</v>
       </c>
@@ -16965,20 +16961,20 @@
       <c r="H184" s="1">
         <v>17582500</v>
       </c>
-      <c r="J184" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.5672897554585319</v>
-      </c>
-      <c r="K184" s="1">
-        <f t="shared" si="9"/>
-        <v>2.4563971775652647</v>
-      </c>
-      <c r="L184" s="14">
-        <f t="shared" si="10"/>
+      <c r="J184" s="14">
+        <f>LN(G184/G183)</f>
         <v>-1.5969564451513055E-2</v>
       </c>
-    </row>
-    <row r="185" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K184" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.5221103113864121E-2</v>
+      </c>
+      <c r="L184" s="20">
+        <f t="shared" si="5"/>
+        <v>2.3168198000288404E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B185" s="7">
         <v>43392</v>
       </c>
@@ -17000,20 +16996,20 @@
       <c r="H185" s="1">
         <v>15234500</v>
       </c>
-      <c r="J185" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.7458327554585225</v>
-      </c>
-      <c r="K185" s="1">
-        <f t="shared" si="9"/>
-        <v>3.047932010031897</v>
-      </c>
-      <c r="L185" s="14">
-        <f t="shared" si="10"/>
+      <c r="J185" s="14">
+        <f>LN(G185/G184)</f>
         <v>-1.6666017501415686E-3</v>
       </c>
-    </row>
-    <row r="186" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K185" s="20">
+        <f t="shared" si="4"/>
+        <v>-9.1814041249263533E-4</v>
+      </c>
+      <c r="L185" s="20">
+        <f t="shared" si="5"/>
+        <v>8.4298181705214655E-7</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B186" s="7">
         <v>43395</v>
       </c>
@@ -17035,20 +17031,20 @@
       <c r="H186" s="1">
         <v>16199100</v>
       </c>
-      <c r="J186" s="1">
-        <f t="shared" si="8"/>
-        <v>-3.2833467554585241</v>
-      </c>
-      <c r="K186" s="1">
-        <f t="shared" si="9"/>
-        <v>10.780365916580017</v>
-      </c>
-      <c r="L186" s="14">
-        <f t="shared" si="10"/>
+      <c r="J186" s="14">
+        <f>LN(G186/G185)</f>
         <v>-1.4467980917831249E-2</v>
       </c>
-    </row>
-    <row r="187" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K186" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.3719519580182315E-2</v>
+      </c>
+      <c r="L186" s="20">
+        <f t="shared" si="5"/>
+        <v>1.8822521751100593E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B187" s="7">
         <v>43396</v>
       </c>
@@ -17070,20 +17066,20 @@
       <c r="H187" s="1">
         <v>21407500</v>
       </c>
-      <c r="J187" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.3844057554585305</v>
-      </c>
-      <c r="K187" s="1">
-        <f t="shared" si="9"/>
-        <v>19.223013828497887</v>
-      </c>
-      <c r="L187" s="14">
-        <f t="shared" si="10"/>
+      <c r="J187" s="14">
+        <f>LN(G187/G186)</f>
         <v>-1.0491100109037506E-2</v>
       </c>
-    </row>
-    <row r="188" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K187" s="20">
+        <f t="shared" si="4"/>
+        <v>-9.7426387713885725E-3</v>
+      </c>
+      <c r="L187" s="20">
+        <f t="shared" si="5"/>
+        <v>9.4919010229763831E-5</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B188" s="7">
         <v>43397</v>
       </c>
@@ -17105,20 +17101,20 @@
       <c r="H188" s="1">
         <v>23168900</v>
       </c>
-      <c r="J188" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.3286197554585328</v>
-      </c>
-      <c r="K188" s="1">
-        <f t="shared" si="9"/>
-        <v>40.051428009180022</v>
-      </c>
-      <c r="L188" s="14">
-        <f t="shared" si="10"/>
+      <c r="J188" s="14">
+        <f>LN(G188/G187)</f>
         <v>-1.8797934699410233E-2</v>
       </c>
-    </row>
-    <row r="189" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K188" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.8049473361761301E-2</v>
+      </c>
+      <c r="L188" s="20">
+        <f t="shared" si="5"/>
+        <v>3.2578348863693084E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B189" s="7">
         <v>43398</v>
       </c>
@@ -17140,20 +17136,20 @@
       <c r="H189" s="1">
         <v>17464700</v>
       </c>
-      <c r="J189" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.771261755458525</v>
-      </c>
-      <c r="K189" s="1">
-        <f t="shared" si="9"/>
-        <v>22.764938739101165</v>
-      </c>
-      <c r="L189" s="14">
-        <f t="shared" si="10"/>
+      <c r="J189" s="14">
+        <f>LN(G189/G188)</f>
         <v>1.508561172182089E-2</v>
       </c>
-    </row>
-    <row r="190" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K189" s="20">
+        <f t="shared" si="4"/>
+        <v>1.5834073059469822E-2</v>
+      </c>
+      <c r="L189" s="20">
+        <f t="shared" si="5"/>
+        <v>2.5071786965262803E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B190" s="7">
         <v>43399</v>
       </c>
@@ -17175,20 +17171,20 @@
       <c r="H190" s="1">
         <v>19174900</v>
       </c>
-      <c r="J190" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.1996677554585347</v>
-      </c>
-      <c r="K190" s="1">
-        <f t="shared" si="9"/>
-        <v>38.435880278072268</v>
-      </c>
-      <c r="L190" s="14">
-        <f t="shared" si="10"/>
+      <c r="J190" s="14">
+        <f>LN(G190/G189)</f>
         <v>-1.3827818321220167E-2</v>
       </c>
-    </row>
-    <row r="191" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K190" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.3079356983571233E-2</v>
+      </c>
+      <c r="L190" s="20">
+        <f t="shared" si="5"/>
+        <v>1.7106957910369359E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B191" s="7">
         <v>43402</v>
       </c>
@@ -17210,20 +17206,20 @@
       <c r="H191" s="1">
         <v>18445200</v>
       </c>
-      <c r="J191" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.7811877554585323</v>
-      </c>
-      <c r="K191" s="1">
-        <f t="shared" si="9"/>
-        <v>22.859756352946597</v>
-      </c>
-      <c r="L191" s="14">
-        <f t="shared" si="10"/>
+      <c r="J191" s="14">
+        <f>LN(G191/G190)</f>
         <v>1.3732385496174792E-2</v>
       </c>
-    </row>
-    <row r="192" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K191" s="20">
+        <f t="shared" si="4"/>
+        <v>1.4480846833823726E-2</v>
+      </c>
+      <c r="L191" s="20">
+        <f t="shared" si="5"/>
+        <v>2.0969492502466262E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B192" s="7">
         <v>43403</v>
       </c>
@@ -17245,20 +17241,20 @@
       <c r="H192" s="1">
         <v>18019700</v>
       </c>
-      <c r="J192" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.9460897554585301</v>
-      </c>
-      <c r="K192" s="1">
-        <f t="shared" si="9"/>
-        <v>8.6794448472177024</v>
-      </c>
-      <c r="L192" s="14">
-        <f t="shared" si="10"/>
+      <c r="J192" s="14">
+        <f>LN(G192/G191)</f>
         <v>1.7490408975189185E-2</v>
       </c>
-    </row>
-    <row r="193" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K192" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8238870312838117E-2</v>
+      </c>
+      <c r="L192" s="20">
+        <f t="shared" si="5"/>
+        <v>3.3265639028852759E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B193" s="7">
         <v>43404</v>
       </c>
@@ -17280,20 +17276,20 @@
       <c r="H193" s="1">
         <v>20860000</v>
       </c>
-      <c r="J193" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.64478175545852423</v>
-      </c>
-      <c r="K193" s="1">
-        <f t="shared" si="9"/>
-        <v>0.41574351217217614</v>
-      </c>
-      <c r="L193" s="14">
-        <f t="shared" si="10"/>
+      <c r="J193" s="14">
+        <f>LN(G193/G192)</f>
         <v>2.1510165207476142E-2</v>
       </c>
-    </row>
-    <row r="194" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K193" s="20">
+        <f t="shared" si="4"/>
+        <v>2.2258626545125074E-2</v>
+      </c>
+      <c r="L193" s="20">
+        <f t="shared" si="5"/>
+        <v>4.954464556753466E-4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B194" s="7">
         <v>43405</v>
       </c>
@@ -17315,20 +17311,20 @@
       <c r="H194" s="1">
         <v>13065000</v>
       </c>
-      <c r="J194" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.68445475545853185</v>
-      </c>
-      <c r="K194" s="1">
-        <f t="shared" si="9"/>
-        <v>0.46847831226979864</v>
-      </c>
-      <c r="L194" s="14">
-        <f t="shared" si="10"/>
+      <c r="J194" s="14">
+        <f>LN(G194/G193)</f>
         <v>-3.6692830577829101E-4</v>
       </c>
-    </row>
-    <row r="195" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K194" s="20">
+        <f t="shared" si="4"/>
+        <v>3.8153303187064228E-4</v>
+      </c>
+      <c r="L194" s="20">
+        <f t="shared" si="5"/>
+        <v>1.4556745440840453E-7</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B195" s="7">
         <v>43406</v>
       </c>
@@ -17350,20 +17346,20 @@
       <c r="H195" s="1">
         <v>19009200</v>
       </c>
-      <c r="J195" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.2796237554585304</v>
-      </c>
-      <c r="K195" s="1">
-        <f t="shared" si="9"/>
-        <v>1.6374369555337926</v>
-      </c>
-      <c r="L195" s="14">
-        <f t="shared" si="10"/>
+      <c r="J195" s="14">
+        <f>LN(G195/G194)</f>
         <v>-5.5208308006724841E-3</v>
       </c>
-    </row>
-    <row r="196" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K195" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.7723694630235503E-3</v>
+      </c>
+      <c r="L195" s="20">
+        <f t="shared" si="5"/>
+        <v>2.2775510291599691E-5</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B196" s="7">
         <v>43409</v>
       </c>
@@ -17385,20 +17381,20 @@
       <c r="H196" s="1">
         <v>10276400</v>
       </c>
-      <c r="J196" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.57534675545852565</v>
-      </c>
-      <c r="K196" s="1">
-        <f t="shared" si="9"/>
-        <v>0.33102388901665253</v>
-      </c>
-      <c r="L196" s="14">
-        <f t="shared" si="10"/>
+      <c r="J196" s="14">
+        <f>LN(G196/G195)</f>
         <v>6.5296268495759046E-3</v>
       </c>
-    </row>
-    <row r="197" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K196" s="20">
+        <f t="shared" si="4"/>
+        <v>7.2780881872248383E-3</v>
+      </c>
+      <c r="L196" s="20">
+        <f t="shared" si="5"/>
+        <v>5.2970567661021734E-5</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B197" s="7">
         <v>43410</v>
       </c>
@@ -17420,20 +17416,20 @@
       <c r="H197" s="1">
         <v>10825000</v>
       </c>
-      <c r="J197" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.9448755458523692E-2</v>
-      </c>
-      <c r="K197" s="1">
-        <f t="shared" si="9"/>
-        <v>4.8231296347378246E-3</v>
-      </c>
-      <c r="L197" s="14">
-        <f t="shared" si="10"/>
+      <c r="J197" s="14">
+        <f>LN(G197/G196)</f>
         <v>4.6642034795430203E-3</v>
       </c>
-    </row>
-    <row r="198" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K197" s="20">
+        <f t="shared" ref="K197:K232" si="6">J197-$C$242</f>
+        <v>5.4126648171919541E-3</v>
+      </c>
+      <c r="L197" s="20">
+        <f t="shared" ref="L197:L232" si="7">K197*K197</f>
+        <v>2.9296940423267609E-5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B198" s="7">
         <v>43411</v>
       </c>
@@ -17455,20 +17451,20 @@
       <c r="H198" s="1">
         <v>12679600</v>
       </c>
-      <c r="J198" s="1">
-        <f t="shared" si="8"/>
-        <v>1.7954112445414694</v>
-      </c>
-      <c r="K198" s="1">
-        <f t="shared" si="9"/>
-        <v>3.2235015370259479</v>
-      </c>
-      <c r="L198" s="14">
-        <f t="shared" si="10"/>
+      <c r="J198" s="14">
+        <f>LN(G198/G197)</f>
         <v>1.7007868463589097E-2</v>
       </c>
-    </row>
-    <row r="199" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K198" s="20">
+        <f t="shared" si="6"/>
+        <v>1.7756329801238029E-2</v>
+      </c>
+      <c r="L198" s="20">
+        <f t="shared" si="7"/>
+        <v>3.1528724801033371E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B199" s="7">
         <v>43412</v>
       </c>
@@ -17490,20 +17486,20 @@
       <c r="H199" s="1">
         <v>11662500</v>
       </c>
-      <c r="J199" s="1">
-        <f t="shared" si="8"/>
-        <v>2.6881572445414719</v>
-      </c>
-      <c r="K199" s="1">
-        <f t="shared" si="9"/>
-        <v>7.2261893713807988</v>
-      </c>
-      <c r="L199" s="14">
-        <f t="shared" si="10"/>
+      <c r="J199" s="14">
+        <f>LN(G199/G198)</f>
         <v>8.0407469463232364E-3</v>
       </c>
-    </row>
-    <row r="200" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K199" s="20">
+        <f t="shared" si="6"/>
+        <v>8.7892082839721702E-3</v>
+      </c>
+      <c r="L199" s="20">
+        <f t="shared" si="7"/>
+        <v>7.7250182259045022E-5</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B200" s="7">
         <v>43413</v>
       </c>
@@ -17525,20 +17521,20 @@
       <c r="H200" s="1">
         <v>10432200</v>
       </c>
-      <c r="J200" s="1">
-        <f t="shared" si="8"/>
-        <v>1.6069352445414751</v>
-      </c>
-      <c r="K200" s="1">
-        <f t="shared" si="9"/>
-        <v>2.5822408801495702</v>
-      </c>
-      <c r="L200" s="14">
-        <f t="shared" si="10"/>
+      <c r="J200" s="14">
+        <f>LN(G200/G199)</f>
         <v>-9.7466019068042052E-3</v>
       </c>
-    </row>
-    <row r="201" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K200" s="20">
+        <f t="shared" si="6"/>
+        <v>-8.9981405691552715E-3</v>
+      </c>
+      <c r="L200" s="20">
+        <f t="shared" si="7"/>
+        <v>8.0966533702277952E-5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B201" s="7">
         <v>43416</v>
       </c>
@@ -17560,20 +17556,20 @@
       <c r="H201" s="1">
         <v>13279700</v>
       </c>
-      <c r="J201" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.71421675545852281</v>
-      </c>
-      <c r="K201" s="1">
-        <f t="shared" si="9"/>
-        <v>0.51010557377769938</v>
-      </c>
-      <c r="L201" s="14">
-        <f t="shared" si="10"/>
+      <c r="J201" s="14">
+        <f>LN(G201/G200)</f>
         <v>-2.1250364727730599E-2</v>
       </c>
-    </row>
-    <row r="202" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K201" s="20">
+        <f t="shared" si="6"/>
+        <v>-2.0501903390081667E-2</v>
+      </c>
+      <c r="L201" s="20">
+        <f t="shared" si="7"/>
+        <v>4.2032804261624216E-4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B202" s="7">
         <v>43417</v>
       </c>
@@ -17595,20 +17591,20 @@
       <c r="H202" s="1">
         <v>13746100</v>
       </c>
-      <c r="J202" s="1">
-        <f t="shared" si="8"/>
-        <v>-7.9374755458530899E-2</v>
-      </c>
-      <c r="K202" s="1">
-        <f t="shared" si="9"/>
-        <v>6.3003518041015805E-3</v>
-      </c>
-      <c r="L202" s="14">
-        <f t="shared" si="10"/>
+      <c r="J202" s="14">
+        <f>LN(G202/G201)</f>
         <v>5.8570458803642216E-3</v>
       </c>
-    </row>
-    <row r="203" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K202" s="20">
+        <f t="shared" si="6"/>
+        <v>6.6055072180131544E-3</v>
+      </c>
+      <c r="L202" s="20">
+        <f t="shared" si="7"/>
+        <v>4.3632725607223881E-5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B203" s="7">
         <v>43418</v>
       </c>
@@ -17630,20 +17626,20 @@
       <c r="H203" s="1">
         <v>18361400</v>
       </c>
-      <c r="J203" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.321157755458529</v>
-      </c>
-      <c r="K203" s="1">
-        <f t="shared" si="9"/>
-        <v>5.3877733257252762</v>
-      </c>
-      <c r="L203" s="14">
-        <f t="shared" si="10"/>
+      <c r="J203" s="14">
+        <f>LN(G203/G202)</f>
         <v>-2.0837822972399042E-2</v>
       </c>
-    </row>
-    <row r="204" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K203" s="20">
+        <f t="shared" si="6"/>
+        <v>-2.008936163475011E-2</v>
+      </c>
+      <c r="L203" s="20">
+        <f t="shared" si="7"/>
+        <v>4.035824508917696E-4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B204" s="7">
         <v>43419</v>
       </c>
@@ -17665,20 +17661,20 @@
       <c r="H204" s="1">
         <v>19100000</v>
       </c>
-      <c r="J204" s="1">
-        <f t="shared" si="8"/>
-        <v>0.39676824454147663</v>
-      </c>
-      <c r="K204" s="1">
-        <f t="shared" si="9"/>
-        <v>0.15742503987652501</v>
-      </c>
-      <c r="L204" s="14">
-        <f t="shared" si="10"/>
+      <c r="J204" s="14">
+        <f>LN(G204/G203)</f>
         <v>2.5208309376062599E-2</v>
       </c>
-    </row>
-    <row r="205" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K204" s="20">
+        <f t="shared" si="6"/>
+        <v>2.5956770713711531E-2</v>
+      </c>
+      <c r="L204" s="20">
+        <f t="shared" si="7"/>
+        <v>6.7375394588419261E-4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B205" s="7">
         <v>43420</v>
       </c>
@@ -17700,20 +17696,20 @@
       <c r="H205" s="1">
         <v>13798600</v>
       </c>
-      <c r="J205" s="1">
-        <f t="shared" si="8"/>
-        <v>0.31740724454147085</v>
-      </c>
-      <c r="K205" s="1">
-        <f t="shared" si="9"/>
-        <v>0.10074735888740907</v>
-      </c>
-      <c r="L205" s="14">
-        <f t="shared" si="10"/>
+      <c r="J205" s="14">
+        <f>LN(G205/G204)</f>
         <v>-7.271243543854472E-4</v>
       </c>
-    </row>
-    <row r="206" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K205" s="20">
+        <f t="shared" si="6"/>
+        <v>2.1336983263486094E-5</v>
+      </c>
+      <c r="L205" s="20">
+        <f t="shared" si="7"/>
+        <v>4.5526685478628571E-10</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B206" s="7">
         <v>43423</v>
       </c>
@@ -17735,20 +17731,20 @@
       <c r="H206" s="1">
         <v>13987000</v>
       </c>
-      <c r="J206" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1506432445414703</v>
-      </c>
-      <c r="K206" s="1">
-        <f t="shared" si="9"/>
-        <v>1.3239798762089217</v>
-      </c>
-      <c r="L206" s="14">
-        <f t="shared" si="10"/>
+      <c r="J206" s="14">
+        <f>LN(G206/G205)</f>
         <v>7.6080677140854735E-3</v>
       </c>
-    </row>
-    <row r="207" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K206" s="20">
+        <f t="shared" si="6"/>
+        <v>8.3565290517344064E-3</v>
+      </c>
+      <c r="L206" s="20">
+        <f t="shared" si="7"/>
+        <v>6.983157779248114E-5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B207" s="7">
         <v>43424</v>
       </c>
@@ -17770,20 +17766,20 @@
       <c r="H207" s="1">
         <v>18936200</v>
       </c>
-      <c r="J207" s="1">
-        <f t="shared" si="8"/>
-        <v>-1.2101887554585318</v>
-      </c>
-      <c r="K207" s="1">
-        <f t="shared" si="9"/>
-        <v>1.46455682383827</v>
-      </c>
-      <c r="L207" s="14">
-        <f t="shared" si="10"/>
+      <c r="J207" s="14">
+        <f>LN(G207/G206)</f>
         <v>-2.1708297918539891E-2</v>
       </c>
-    </row>
-    <row r="208" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K207" s="20">
+        <f t="shared" si="6"/>
+        <v>-2.0959836580890959E-2</v>
+      </c>
+      <c r="L207" s="20">
+        <f t="shared" si="7"/>
+        <v>4.3931474949765481E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B208" s="7">
         <v>43425</v>
       </c>
@@ -17805,20 +17801,20 @@
       <c r="H208" s="1">
         <v>10619600</v>
       </c>
-      <c r="J208" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.013662755458526</v>
-      </c>
-      <c r="K208" s="1">
-        <f t="shared" si="9"/>
-        <v>4.0548376927208238</v>
-      </c>
-      <c r="L208" s="14">
-        <f t="shared" si="10"/>
+      <c r="J208" s="14">
+        <f>LN(G208/G207)</f>
         <v>-7.4969023982608797E-3</v>
       </c>
-    </row>
-    <row r="209" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K208" s="20">
+        <f t="shared" si="6"/>
+        <v>-6.7484410606119469E-3</v>
+      </c>
+      <c r="L208" s="20">
+        <f t="shared" si="7"/>
+        <v>4.5541456748553296E-5</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B209" s="7">
         <v>43427</v>
       </c>
@@ -17840,20 +17836,20 @@
       <c r="H209" s="1">
         <v>6488400</v>
       </c>
-      <c r="J209" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.9956807554585225</v>
-      </c>
-      <c r="K209" s="1">
-        <f t="shared" si="9"/>
-        <v>8.9741031886245448</v>
-      </c>
-      <c r="L209" s="14">
-        <f t="shared" si="10"/>
+      <c r="J209" s="14">
+        <f>LN(G209/G208)</f>
         <v>-9.2398151208223662E-3</v>
       </c>
-    </row>
-    <row r="210" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K209" s="20">
+        <f t="shared" si="6"/>
+        <v>-8.4913537831734325E-3</v>
+      </c>
+      <c r="L209" s="20">
+        <f t="shared" si="7"/>
+        <v>7.2103089071013759E-5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B210" s="7">
         <v>43430</v>
       </c>
@@ -17875,20 +17871,20 @@
       <c r="H210" s="1">
         <v>13948300</v>
       </c>
-      <c r="J210" s="1">
-        <f t="shared" si="8"/>
-        <v>-0.4067067554585293</v>
-      </c>
-      <c r="K210" s="1">
-        <f t="shared" si="9"/>
-        <v>0.16541038493560395</v>
-      </c>
-      <c r="L210" s="14">
-        <f t="shared" si="10"/>
+      <c r="J210" s="14">
+        <f>LN(G210/G209)</f>
         <v>2.4177908145993725E-2</v>
       </c>
-    </row>
-    <row r="211" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K210" s="20">
+        <f t="shared" si="6"/>
+        <v>2.4926369483642657E-2</v>
+      </c>
+      <c r="L210" s="20">
+        <f t="shared" si="7"/>
+        <v>6.2132389563507187E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B211" s="7">
         <v>43431</v>
       </c>
@@ -17910,20 +17906,20 @@
       <c r="H211" s="1">
         <v>9238200</v>
       </c>
-      <c r="J211" s="1">
-        <f t="shared" si="8"/>
-        <v>4.9584244541478029E-2</v>
-      </c>
-      <c r="K211" s="1">
-        <f t="shared" si="9"/>
-        <v>2.4585973067490939E-3</v>
-      </c>
-      <c r="L211" s="14">
-        <f t="shared" si="10"/>
+      <c r="J211" s="14">
+        <f>LN(G211/G210)</f>
         <v>4.2012713764815008E-3</v>
       </c>
-    </row>
-    <row r="212" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K211" s="20">
+        <f t="shared" si="6"/>
+        <v>4.9497327141304337E-3</v>
+      </c>
+      <c r="L211" s="20">
+        <f t="shared" si="7"/>
+        <v>2.4499853941333031E-5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B212" s="7">
         <v>43432</v>
       </c>
@@ -17945,20 +17941,20 @@
       <c r="H212" s="1">
         <v>13977300</v>
       </c>
-      <c r="J212" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2597592445414705</v>
-      </c>
-      <c r="K212" s="1">
-        <f t="shared" si="9"/>
-        <v>1.5869933542076964</v>
-      </c>
-      <c r="L212" s="14">
-        <f t="shared" si="10"/>
+      <c r="J212" s="14">
+        <f>LN(G212/G211)</f>
         <v>1.105787394553113E-2</v>
       </c>
-    </row>
-    <row r="213" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K212" s="20">
+        <f t="shared" si="6"/>
+        <v>1.1806335283180064E-2</v>
+      </c>
+      <c r="L212" s="20">
+        <f t="shared" si="7"/>
+        <v>1.3938955281886248E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B213" s="7">
         <v>43433</v>
       </c>
@@ -17980,20 +17976,20 @@
       <c r="H213" s="1">
         <v>11144300</v>
       </c>
-      <c r="J213" s="1">
-        <f t="shared" si="8"/>
-        <v>0.38684224454146943</v>
-      </c>
-      <c r="K213" s="1">
-        <f t="shared" si="9"/>
-        <v>0.14964692216188202</v>
-      </c>
-      <c r="L213" s="14">
-        <f t="shared" si="10"/>
+      <c r="J213" s="14">
+        <f>LN(G213/G212)</f>
         <v>-7.963896839291041E-3</v>
       </c>
-    </row>
-    <row r="214" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K213" s="20">
+        <f t="shared" si="6"/>
+        <v>-7.2154355016421073E-3</v>
+      </c>
+      <c r="L213" s="20">
+        <f t="shared" si="7"/>
+        <v>5.2062509478357286E-5</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B214" s="7">
         <v>43434</v>
       </c>
@@ -18015,20 +18011,20 @@
       <c r="H214" s="1">
         <v>18652700</v>
       </c>
-      <c r="J214" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5077452445414679</v>
-      </c>
-      <c r="K214" s="1">
-        <f t="shared" si="9"/>
-        <v>2.2732957224374108</v>
-      </c>
-      <c r="L214" s="14">
-        <f t="shared" si="10"/>
+      <c r="J214" s="14">
+        <f>LN(G214/G213)</f>
         <v>1.0214830892712816E-2</v>
       </c>
-    </row>
-    <row r="215" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K214" s="20">
+        <f t="shared" si="6"/>
+        <v>1.096329223036175E-2</v>
+      </c>
+      <c r="L214" s="20">
+        <f t="shared" si="7"/>
+        <v>1.2019377652831031E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B215" s="7">
         <v>43437</v>
       </c>
@@ -18050,20 +18046,20 @@
       <c r="H215" s="1">
         <v>16034500</v>
       </c>
-      <c r="J215" s="1">
-        <f t="shared" si="8"/>
-        <v>2.5492792445414665</v>
-      </c>
-      <c r="K215" s="1">
-        <f t="shared" si="9"/>
-        <v>6.4988246666499103</v>
-      </c>
-      <c r="L215" s="14">
-        <f t="shared" si="10"/>
+      <c r="J215" s="14">
+        <f>LN(G215/G214)</f>
         <v>9.3989171146571012E-3</v>
       </c>
-    </row>
-    <row r="216" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K215" s="20">
+        <f t="shared" si="6"/>
+        <v>1.0147378452306035E-2</v>
+      </c>
+      <c r="L215" s="20">
+        <f t="shared" si="7"/>
+        <v>1.0296928945432482E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B216" s="7">
         <v>43438</v>
       </c>
@@ -18085,20 +18081,20 @@
       <c r="H216" s="1">
         <v>23555900</v>
       </c>
-      <c r="J216" s="1">
-        <f t="shared" si="8"/>
-        <v>-2.4203557554585302</v>
-      </c>
-      <c r="K216" s="1">
-        <f t="shared" si="9"/>
-        <v>5.8581219829812321</v>
-      </c>
-      <c r="L216" s="14">
-        <f t="shared" si="10"/>
+      <c r="J216" s="14">
+        <f>LN(G216/G215)</f>
         <v>-4.5663315590005221E-2</v>
       </c>
-    </row>
-    <row r="217" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K216" s="20">
+        <f t="shared" si="6"/>
+        <v>-4.4914854252356286E-2</v>
+      </c>
+      <c r="L216" s="20">
+        <f t="shared" si="7"/>
+        <v>2.0173441325104075E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B217" s="7">
         <v>43440</v>
       </c>
@@ -18120,20 +18116,20 @@
       <c r="H217" s="1">
         <v>27213900</v>
       </c>
-      <c r="J217" s="1">
-        <f t="shared" si="8"/>
-        <v>-4.4439227554585301</v>
-      </c>
-      <c r="K217" s="1">
-        <f t="shared" si="9"/>
-        <v>19.748449456482135</v>
-      </c>
-      <c r="L217" s="14">
-        <f t="shared" si="10"/>
+      <c r="J217" s="14">
+        <f>LN(G217/G216)</f>
         <v>-1.9207824634957647E-2</v>
       </c>
-    </row>
-    <row r="218" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K217" s="20">
+        <f t="shared" si="6"/>
+        <v>-1.8459363297308715E-2</v>
+      </c>
+      <c r="L217" s="20">
+        <f t="shared" si="7"/>
+        <v>3.407480933420281E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B218" s="7">
         <v>43441</v>
       </c>
@@ -18155,20 +18151,20 @@
       <c r="H218" s="1">
         <v>19248600</v>
       </c>
-      <c r="J218" s="1">
-        <f t="shared" si="8"/>
-        <v>-6.3286197554585328</v>
-      </c>
-      <c r="K218" s="1">
-        <f t="shared" si="9"/>
-        <v>40.051428009180022</v>
-      </c>
-      <c r="L218" s="14">
-        <f t="shared" si="10"/>
+      <c r="J218" s="14">
+        <f>LN(G218/G217)</f>
         <v>-1.8227697694712931E-2</v>
       </c>
-    </row>
-    <row r="219" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K218" s="20">
+        <f t="shared" si="6"/>
+        <v>-1.7479236357063999E-2</v>
+      </c>
+      <c r="L218" s="20">
+        <f t="shared" si="7"/>
+        <v>3.0552370362610794E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B219" s="7">
         <v>43444</v>
       </c>
@@ -18190,20 +18186,20 @@
       <c r="H219" s="1">
         <v>23636400</v>
       </c>
-      <c r="J219" s="1">
-        <f t="shared" si="8"/>
-        <v>-8.2430707554585325</v>
-      </c>
-      <c r="K219" s="1">
-        <f t="shared" si="9"/>
-        <v>67.948215479495701</v>
-      </c>
-      <c r="L219" s="14">
-        <f t="shared" si="10"/>
+      <c r="J219" s="14">
+        <f>LN(G219/G218)</f>
         <v>-1.886201281955846E-2</v>
       </c>
-    </row>
-    <row r="220" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K219" s="20">
+        <f t="shared" si="6"/>
+        <v>-1.8113551481909528E-2</v>
+      </c>
+      <c r="L219" s="20">
+        <f t="shared" si="7"/>
+        <v>3.2810074728778689E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B220" s="7">
         <v>43445</v>
       </c>
@@ -18225,20 +18221,20 @@
       <c r="H220" s="1">
         <v>16860700</v>
       </c>
-      <c r="J220" s="1">
-        <f t="shared" si="8"/>
-        <v>-9.225096755458523</v>
-      </c>
-      <c r="K220" s="1">
-        <f t="shared" si="9"/>
-        <v>85.102410147571362</v>
-      </c>
-      <c r="L220" s="14">
-        <f t="shared" si="10"/>
+      <c r="J220" s="14">
+        <f>LN(G220/G219)</f>
         <v>-9.8151883184231931E-3</v>
       </c>
-    </row>
-    <row r="221" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K220" s="20">
+        <f t="shared" si="6"/>
+        <v>-9.0667269807742593E-3</v>
+      </c>
+      <c r="L220" s="20">
+        <f t="shared" si="7"/>
+        <v>8.2205538143899915E-5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B221" s="7">
         <v>43446</v>
       </c>
@@ -18260,20 +18256,20 @@
       <c r="H221" s="1">
         <v>22621500</v>
       </c>
-      <c r="J221" s="1">
-        <f t="shared" si="8"/>
-        <v>-8.5803357554585347</v>
-      </c>
-      <c r="K221" s="1">
-        <f t="shared" si="9"/>
-        <v>73.622161676400182</v>
-      </c>
-      <c r="L221" s="14">
-        <f t="shared" si="10"/>
+      <c r="J221" s="14">
+        <f>LN(G221/G220)</f>
         <v>6.4551305068352707E-3</v>
       </c>
-    </row>
-    <row r="222" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K221" s="20">
+        <f t="shared" si="6"/>
+        <v>7.2035918444842036E-3</v>
+      </c>
+      <c r="L221" s="20">
+        <f t="shared" si="7"/>
+        <v>5.1891735461919327E-5</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B222" s="7">
         <v>43447</v>
       </c>
@@ -18295,20 +18291,20 @@
       <c r="H222" s="1">
         <v>17250900</v>
       </c>
-      <c r="J222" s="1">
-        <f t="shared" si="8"/>
-        <v>-8.4811387554585309</v>
-      </c>
-      <c r="K222" s="1">
-        <f t="shared" si="9"/>
-        <v>71.929714589340676</v>
-      </c>
-      <c r="L222" s="14">
-        <f t="shared" si="10"/>
+      <c r="J222" s="14">
+        <f>LN(G222/G221)</f>
         <v>9.8943888353398104E-4</v>
       </c>
-    </row>
-    <row r="223" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K222" s="20">
+        <f t="shared" si="6"/>
+        <v>1.7379002211829143E-3</v>
+      </c>
+      <c r="L222" s="20">
+        <f t="shared" si="7"/>
+        <v>3.0202971787876227E-6</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B223" s="7">
         <v>43448</v>
       </c>
@@ -18330,20 +18326,20 @@
       <c r="H223" s="1">
         <v>19879500</v>
       </c>
-      <c r="J223" s="1">
-        <f t="shared" si="8"/>
-        <v>-9.3044497554585348</v>
-      </c>
-      <c r="K223" s="1">
-        <f t="shared" si="9"/>
-        <v>86.572785251852395</v>
-      </c>
-      <c r="L223" s="14">
-        <f t="shared" si="10"/>
+      <c r="J223" s="14">
+        <f>LN(G223/G222)</f>
         <v>-8.2419124425003511E-3</v>
       </c>
-    </row>
-    <row r="224" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K223" s="20">
+        <f t="shared" si="6"/>
+        <v>-7.4934511048514174E-3</v>
+      </c>
+      <c r="L223" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6151809460798932E-5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B224" s="7">
         <v>43451</v>
       </c>
@@ -18365,20 +18361,20 @@
       <c r="H224" s="1">
         <v>25113500</v>
       </c>
-      <c r="J224" s="1">
-        <f t="shared" si="8"/>
-        <v>-10.574140755458529</v>
-      </c>
-      <c r="K224" s="1">
-        <f t="shared" si="9"/>
-        <v>111.81245271624908</v>
-      </c>
-      <c r="L224" s="14">
-        <f t="shared" si="10"/>
+      <c r="J224" s="14">
+        <f>LN(G224/G223)</f>
         <v>-1.2845155374416424E-2</v>
       </c>
-    </row>
-    <row r="225" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K224" s="20">
+        <f t="shared" si="6"/>
+        <v>-1.209669403676749E-2</v>
+      </c>
+      <c r="L224" s="20">
+        <f t="shared" si="7"/>
+        <v>1.4633000661916614E-4</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B225" s="7">
         <v>43452</v>
       </c>
@@ -18400,20 +18396,20 @@
       <c r="H225" s="1">
         <v>20837200</v>
       </c>
-      <c r="J225" s="1">
-        <f t="shared" si="8"/>
-        <v>-11.040350755458533</v>
-      </c>
-      <c r="K225" s="1">
-        <f t="shared" si="9"/>
-        <v>121.8893448035538</v>
-      </c>
-      <c r="L225" s="14">
-        <f t="shared" si="10"/>
+      <c r="J225" s="14">
+        <f>LN(G225/G224)</f>
         <v>-4.758258303181313E-3</v>
       </c>
-    </row>
-    <row r="226" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K225" s="20">
+        <f t="shared" si="6"/>
+        <v>-4.0097969655323792E-3</v>
+      </c>
+      <c r="L225" s="20">
+        <f t="shared" si="7"/>
+        <v>1.6078471704792676E-5</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B226" s="7">
         <v>43453</v>
       </c>
@@ -18435,20 +18431,20 @@
       <c r="H226" s="1">
         <v>28767900</v>
       </c>
-      <c r="J226" s="1">
-        <f t="shared" si="8"/>
-        <v>-12.280287755458531</v>
-      </c>
-      <c r="K226" s="1">
-        <f t="shared" si="9"/>
-        <v>150.80546735686471</v>
-      </c>
-      <c r="L226" s="14">
-        <f t="shared" si="10"/>
+      <c r="J226" s="14">
+        <f>LN(G226/G225)</f>
         <v>-1.276641458463826E-2</v>
       </c>
-    </row>
-    <row r="227" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K226" s="20">
+        <f t="shared" si="6"/>
+        <v>-1.2017953246989326E-2</v>
+      </c>
+      <c r="L226" s="20">
+        <f t="shared" si="7"/>
+        <v>1.4443120024682128E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B227" s="7">
         <v>43454</v>
       </c>
@@ -18470,20 +18466,20 @@
       <c r="H227" s="1">
         <v>31825200</v>
       </c>
-      <c r="J227" s="1">
-        <f t="shared" si="8"/>
-        <v>-13.11352375545853</v>
-      </c>
-      <c r="K227" s="1">
-        <f t="shared" si="9"/>
-        <v>171.96450528497519</v>
-      </c>
-      <c r="L227" s="14">
-        <f t="shared" si="10"/>
+      <c r="J227" s="14">
+        <f>LN(G227/G226)</f>
         <v>-8.6714978692854425E-3</v>
       </c>
-    </row>
-    <row r="228" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K227" s="20">
+        <f t="shared" si="6"/>
+        <v>-7.9230365316365087E-3</v>
+      </c>
+      <c r="L227" s="20">
+        <f t="shared" si="7"/>
+        <v>6.2774507881646684E-5</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B228" s="7">
         <v>43455</v>
       </c>
@@ -18505,20 +18501,20 @@
       <c r="H228" s="1">
         <v>41313900</v>
       </c>
-      <c r="J228" s="1">
-        <f t="shared" si="8"/>
-        <v>-15.375151755458532</v>
-      </c>
-      <c r="K228" s="1">
-        <f t="shared" si="9"/>
-        <v>236.39529150337958</v>
-      </c>
-      <c r="L228" s="14">
-        <f t="shared" si="10"/>
+      <c r="J228" s="14">
+        <f>LN(G228/G227)</f>
         <v>-2.3923024421770234E-2</v>
       </c>
-    </row>
-    <row r="229" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K228" s="20">
+        <f t="shared" si="6"/>
+        <v>-2.3174563084121302E-2</v>
+      </c>
+      <c r="L228" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3706037413991784E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B229" s="7">
         <v>43458</v>
       </c>
@@ -18540,20 +18536,20 @@
       <c r="H229" s="1">
         <v>17009300</v>
       </c>
-      <c r="J229" s="1">
-        <f t="shared" si="8"/>
-        <v>-17.388800755458533</v>
-      </c>
-      <c r="K229" s="1">
-        <f t="shared" si="9"/>
-        <v>302.37039171303525</v>
-      </c>
-      <c r="L229" s="14">
-        <f t="shared" si="10"/>
+      <c r="J229" s="14">
+        <f>LN(G229/G228)</f>
         <v>-2.1792519779676018E-2</v>
       </c>
-    </row>
-    <row r="230" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K229" s="20">
+        <f t="shared" si="6"/>
+        <v>-2.1044058442027086E-2</v>
+      </c>
+      <c r="L229" s="20">
+        <f t="shared" si="7"/>
+        <v>4.4285239571145149E-4</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B230" s="7">
         <v>43460</v>
       </c>
@@ -18575,20 +18571,20 @@
       <c r="H230" s="1">
         <v>22542900</v>
       </c>
-      <c r="J230" s="1">
-        <f t="shared" si="8"/>
-        <v>-13.599569755458532</v>
-      </c>
-      <c r="K230" s="1">
-        <f t="shared" si="9"/>
-        <v>184.94829753358243</v>
-      </c>
-      <c r="L230" s="14">
-        <f t="shared" si="10"/>
+      <c r="J230" s="14">
+        <f>LN(G230/G229)</f>
         <v>4.062231367026508E-2</v>
       </c>
-    </row>
-    <row r="231" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K230" s="20">
+        <f t="shared" si="6"/>
+        <v>4.1370775007914015E-2</v>
+      </c>
+      <c r="L230" s="20">
+        <f t="shared" si="7"/>
+        <v>1.7115410247554429E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B231" s="7">
         <v>43461</v>
       </c>
@@ -18610,20 +18606,20 @@
       <c r="H231" s="1">
         <v>20304700</v>
       </c>
-      <c r="J231" s="1">
-        <f t="shared" si="8"/>
-        <v>-12.528272755458531</v>
-      </c>
-      <c r="K231" s="1">
-        <f t="shared" si="9"/>
-        <v>156.95761823516449</v>
-      </c>
-      <c r="L231" s="14">
-        <f t="shared" si="10"/>
+      <c r="J231" s="14">
+        <f>LN(G231/G230)</f>
         <v>1.1191795485162003E-2</v>
       </c>
-    </row>
-    <row r="232" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="K231" s="20">
+        <f t="shared" si="6"/>
+        <v>1.1940256822810937E-2</v>
+      </c>
+      <c r="L231" s="20">
+        <f t="shared" si="7"/>
+        <v>1.4256973299468315E-4</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B232" s="8">
         <v>43462</v>
       </c>
@@ -18646,39 +18642,38 @@
         <v>17963300</v>
       </c>
       <c r="I232" s="3"/>
-      <c r="J232" s="3">
-        <f t="shared" si="8"/>
-        <v>-12.736578755458524</v>
-      </c>
-      <c r="K232" s="3">
-        <f t="shared" si="9"/>
-        <v>162.2204383939974</v>
-      </c>
-      <c r="L232" s="15">
-        <f t="shared" si="10"/>
+      <c r="J232" s="15">
+        <f>LN(G232/G231)</f>
         <v>-2.1663767845346597E-3</v>
       </c>
-      <c r="M232" s="3"/>
-    </row>
-    <row r="233" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K232" s="21">
+        <f t="shared" si="6"/>
+        <v>-1.4179154468857264E-3</v>
+      </c>
+      <c r="L232" s="21">
+        <f t="shared" si="7"/>
+        <v>2.0104842145171494E-6</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B233" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K233" s="5">
-        <f>SUM(K4:K232)</f>
-        <v>4896.423605697224</v>
-      </c>
-      <c r="L233" s="13"/>
-    </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J233" s="13"/>
+      <c r="L233" s="5">
+        <f>SUM(L4:L232)</f>
+        <v>4.7193321294908247E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B236" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B238" s="5" t="s">
         <v>13</v>
       </c>
@@ -18687,10 +18682,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B240" s="6" t="s">
         <v>8</v>
       </c>
@@ -18699,30 +18694,39 @@
         <v>108.78655875545853</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" s="18"/>
+      <c r="C241" s="16"/>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" s="19">
+        <f>AVERAGE(J4:J232)</f>
+        <v>-7.484613376489333E-4</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C242" s="10">
-        <f>K233/C238</f>
-        <v>21.381762470293555</v>
-      </c>
-      <c r="D242" s="9" t="s">
+      <c r="C244" s="10">
+        <f>SQRT(L233/(C238-1))</f>
+        <v>1.4387086268367797E-2</v>
+      </c>
+      <c r="D244" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B245" s="6" t="s">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C245" s="6"/>
+      <c r="C247" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:H233"/>
-  <mergeCells count="1">
-    <mergeCell ref="J2:L2"/>
-  </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
